--- a/XC-comparisons/32P-DAT_comparison.xlsx
+++ b/XC-comparisons/32P-DAT_comparison.xlsx
@@ -499,7 +499,7 @@
         <v>-298</v>
       </c>
       <c r="B4">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>-291</v>
       </c>
       <c r="B11">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>-288</v>
       </c>
       <c r="B14">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>-282</v>
       </c>
       <c r="B20">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>-2.8421709430404e-14</v>
@@ -1021,7 +1021,7 @@
         <v>-280</v>
       </c>
       <c r="B22">
-        <v>-0.00100000000000477</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C22">
         <v>2.8421709430404e-14</v>
@@ -1166,7 +1166,7 @@
         <v>-275</v>
       </c>
       <c r="B27">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>-2.8421709430404e-14</v>
@@ -1282,7 +1282,7 @@
         <v>-271</v>
       </c>
       <c r="B31">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>-269</v>
       </c>
       <c r="B33">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>-267</v>
       </c>
       <c r="B35">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>-265</v>
       </c>
       <c r="B37">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>-0.000999999999976353</v>
@@ -1485,7 +1485,7 @@
         <v>-264</v>
       </c>
       <c r="B38">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>-0.0010000000000332</v>
@@ -1543,7 +1543,7 @@
         <v>-262</v>
       </c>
       <c r="B40">
-        <v>-0.00200000000000955</v>
+        <v>-0.0010000000000332</v>
       </c>
       <c r="C40">
         <v>5.6843418860808e-14</v>
@@ -1601,7 +1601,7 @@
         <v>-260</v>
       </c>
       <c r="B42">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>-259</v>
       </c>
       <c r="B43">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>-0.000999999999976353</v>
@@ -1717,7 +1717,7 @@
         <v>-256</v>
       </c>
       <c r="B46">
-        <v>-0.00200000000000955</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>-252</v>
       </c>
       <c r="B50">
-        <v>-0.00300000000004275</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>-251</v>
       </c>
       <c r="B51">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>-246</v>
       </c>
       <c r="B56">
-        <v>-0.00100000000009004</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>-245</v>
       </c>
       <c r="B57">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>-244</v>
       </c>
       <c r="B58">
-        <v>-0.00299999999992906</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>-243</v>
       </c>
       <c r="B59">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>-242</v>
       </c>
       <c r="B60">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>-1.13686837721616e-13</v>
@@ -2152,7 +2152,7 @@
         <v>-241</v>
       </c>
       <c r="B61">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>1.13686837721616e-13</v>
@@ -2181,7 +2181,7 @@
         <v>-240</v>
       </c>
       <c r="B62">
-        <v>-0.00200000000006639</v>
+        <v>-0.00100000000009004</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>-239</v>
       </c>
       <c r="B63">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>-236</v>
       </c>
       <c r="B66">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>-235</v>
       </c>
       <c r="B67">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>-232</v>
       </c>
       <c r="B70">
-        <v>-0.0040000000000191</v>
+        <v>-0.00100000000009004</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>-230</v>
       </c>
       <c r="B72">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>-229</v>
       </c>
       <c r="B73">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>-228</v>
       </c>
       <c r="B74">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>-226</v>
       </c>
       <c r="B76">
-        <v>-0.0040000000000191</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2616,7 +2616,7 @@
         <v>-225</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>-223</v>
       </c>
       <c r="B79">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>-1.13686837721616e-13</v>
@@ -2703,7 +2703,7 @@
         <v>-222</v>
       </c>
       <c r="B80">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>-221</v>
       </c>
       <c r="B81">
-        <v>-0.00200000000006639</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C81">
         <v>0.000999999999976353</v>
@@ -2761,7 +2761,7 @@
         <v>-220</v>
       </c>
       <c r="B82">
-        <v>-0.00199999999995271</v>
+        <v>0.00100000000009004</v>
       </c>
       <c r="C82">
         <v>-1.13686837721616e-13</v>
@@ -2790,7 +2790,7 @@
         <v>-219</v>
       </c>
       <c r="B83">
-        <v>-0.00299999999992906</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C83">
         <v>-1.13686837721616e-13</v>
@@ -2819,7 +2819,7 @@
         <v>-218</v>
       </c>
       <c r="B84">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>-215</v>
       </c>
       <c r="B87">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>1.13686837721616e-13</v>
@@ -2993,7 +2993,7 @@
         <v>-212</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>-210</v>
       </c>
       <c r="B92">
-        <v>-0.00199999999995271</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C92">
         <v>-1.13686837721616e-13</v>
@@ -3196,7 +3196,7 @@
         <v>-205</v>
       </c>
       <c r="B97">
-        <v>-1.13686837721616e-13</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C97">
         <v>0.00100000000009004</v>
@@ -3254,7 +3254,7 @@
         <v>-203</v>
       </c>
       <c r="B99">
-        <v>-1.13686837721616e-13</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>-194</v>
       </c>
       <c r="B108">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>1.13686837721616e-13</v>
@@ -3544,7 +3544,7 @@
         <v>-193</v>
       </c>
       <c r="B109">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3573,7 +3573,7 @@
         <v>-192</v>
       </c>
       <c r="B110">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3631,7 +3631,7 @@
         <v>-190</v>
       </c>
       <c r="B112">
-        <v>-0.00199999999995271</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>-189</v>
       </c>
       <c r="B113">
-        <v>-0.00199999999983902</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C113">
         <v>-1.13686837721616e-13</v>
@@ -3689,7 +3689,7 @@
         <v>-188</v>
       </c>
       <c r="B114">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>-187</v>
       </c>
       <c r="B115">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>-186</v>
       </c>
       <c r="B116">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>-185</v>
       </c>
       <c r="B117">
-        <v>-0.00199999999995271</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C117">
         <v>1.13686837721616e-13</v>
@@ -3805,7 +3805,7 @@
         <v>-184</v>
       </c>
       <c r="B118">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>-1.13686837721616e-13</v>
@@ -3863,7 +3863,7 @@
         <v>-182</v>
       </c>
       <c r="B120">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>-181</v>
       </c>
       <c r="B121">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>-0.000999999999976353</v>
@@ -3921,7 +3921,7 @@
         <v>-180</v>
       </c>
       <c r="B122">
-        <v>-0.00299999999992906</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C122">
         <v>-1.13686837721616e-13</v>
@@ -3950,7 +3950,7 @@
         <v>-179</v>
       </c>
       <c r="B123">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>-178</v>
       </c>
       <c r="B124">
-        <v>-0.00199999999995271</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C124">
         <v>1.13686837721616e-13</v>
@@ -4008,7 +4008,7 @@
         <v>-177</v>
       </c>
       <c r="B125">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>-1.13686837721616e-13</v>
@@ -4037,7 +4037,7 @@
         <v>-176</v>
       </c>
       <c r="B126">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>0.00100000000000033</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>-175</v>
       </c>
       <c r="B127">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>1.13686837721616e-13</v>
@@ -4095,7 +4095,7 @@
         <v>-174</v>
       </c>
       <c r="B128">
-        <v>-0.00200000000006639</v>
+        <v>-0.00100000000009004</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>-171</v>
       </c>
       <c r="B131">
-        <v>-0.00200000000006639</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C131">
         <v>1.13686837721616e-13</v>
@@ -4211,7 +4211,7 @@
         <v>-170</v>
       </c>
       <c r="B132">
-        <v>-0.00199999999995271</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>-168</v>
       </c>
       <c r="B134">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>-167</v>
       </c>
       <c r="B135">
-        <v>-0.00299999999992906</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>-1.13686837721616e-13</v>
@@ -4356,7 +4356,7 @@
         <v>-165</v>
       </c>
       <c r="B137">
-        <v>-0.00200000000006639</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C137">
         <v>-1.13686837721616e-13</v>
@@ -4385,7 +4385,7 @@
         <v>-164</v>
       </c>
       <c r="B138">
-        <v>-0.00200000000006639</v>
+        <v>-0.00100000000009004</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>-162</v>
       </c>
       <c r="B140">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>-160</v>
       </c>
       <c r="B142">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C142">
         <v>-1.13686837721616e-13</v>
@@ -4530,7 +4530,7 @@
         <v>-159</v>
       </c>
       <c r="B143">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>-0.000999999999976353</v>
@@ -4588,7 +4588,7 @@
         <v>-157</v>
       </c>
       <c r="B145">
-        <v>-0.00299999999992906</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>-155</v>
       </c>
       <c r="B147">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C147">
         <v>-1.13686837721616e-13</v>
@@ -4733,7 +4733,7 @@
         <v>-152</v>
       </c>
       <c r="B150">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>-149</v>
       </c>
       <c r="B153">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>-148</v>
       </c>
       <c r="B154">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C154">
         <v>5.6843418860808e-14</v>
@@ -4907,7 +4907,7 @@
         <v>-146</v>
       </c>
       <c r="B156">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C156">
         <v>-5.6843418860808e-14</v>
@@ -4936,7 +4936,7 @@
         <v>-145</v>
       </c>
       <c r="B157">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C157">
         <v>5.6843418860808e-14</v>
@@ -5081,7 +5081,7 @@
         <v>-140</v>
       </c>
       <c r="B162">
-        <v>-0.000999999999976353</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C162">
         <v>-5.6843418860808e-14</v>
@@ -5110,7 +5110,7 @@
         <v>-139</v>
       </c>
       <c r="B163">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>-0.00099999999991951</v>
@@ -5139,7 +5139,7 @@
         <v>-138</v>
       </c>
       <c r="B164">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -5168,7 +5168,7 @@
         <v>-137</v>
       </c>
       <c r="B165">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C165">
         <v>5.6843418860808e-14</v>
@@ -5226,7 +5226,7 @@
         <v>-135</v>
       </c>
       <c r="B167">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C167">
         <v>-0.000999999999976353</v>
@@ -5255,7 +5255,7 @@
         <v>-134</v>
       </c>
       <c r="B168">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>-133</v>
       </c>
       <c r="B169">
-        <v>-0.00200000000000955</v>
+        <v>-0.0010000000000332</v>
       </c>
       <c r="C169">
         <v>-5.6843418860808e-14</v>
@@ -5313,7 +5313,7 @@
         <v>-132</v>
       </c>
       <c r="B170">
-        <v>-0.00199999999995271</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C170">
         <v>5.6843418860808e-14</v>
@@ -5342,7 +5342,7 @@
         <v>-131</v>
       </c>
       <c r="B171">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>-130</v>
       </c>
       <c r="B172">
-        <v>-0.0010000000000332</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C172">
         <v>-0.0010000000000332</v>
@@ -5516,7 +5516,7 @@
         <v>-125</v>
       </c>
       <c r="B177">
-        <v>-0.000999999999976353</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -5545,7 +5545,7 @@
         <v>-124</v>
       </c>
       <c r="B178">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>-123</v>
       </c>
       <c r="B179">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C179">
         <v>5.6843418860808e-14</v>
@@ -5748,7 +5748,7 @@
         <v>-117</v>
       </c>
       <c r="B185">
-        <v>-0.0010000000000332</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>-115</v>
       </c>
       <c r="B187">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>-109</v>
       </c>
       <c r="B193">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>-108</v>
       </c>
       <c r="B194">
-        <v>-0.00199999999995271</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C194">
         <v>-0.0010000000000332</v>
@@ -6096,7 +6096,7 @@
         <v>-105</v>
       </c>
       <c r="B197">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>-104</v>
       </c>
       <c r="B198">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>-102</v>
       </c>
       <c r="B200">
-        <v>-0.000999999999976353</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -6212,7 +6212,7 @@
         <v>-101</v>
       </c>
       <c r="B201">
-        <v>-0.00299999999992906</v>
+        <v>0</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>0.00100000000000033</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -6299,7 +6299,7 @@
         <v>-98</v>
       </c>
       <c r="B204">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>-96</v>
       </c>
       <c r="B206">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C206">
         <v>1.13686837721616e-13</v>
@@ -6386,7 +6386,7 @@
         <v>-95</v>
       </c>
       <c r="B207">
-        <v>-0.00100000000009004</v>
+        <v>0</v>
       </c>
       <c r="C207">
         <v>-0.000999999999976353</v>
@@ -6415,7 +6415,7 @@
         <v>-94</v>
       </c>
       <c r="B208">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -6444,7 +6444,7 @@
         <v>-93</v>
       </c>
       <c r="B209">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>-91</v>
       </c>
       <c r="B211">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -6543,7 +6543,7 @@
         <v>0.00100000000000477</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>0.00100000000000033</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -6560,7 +6560,7 @@
         <v>-89</v>
       </c>
       <c r="B213">
-        <v>-0.00199999999995271</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>-88</v>
       </c>
       <c r="B214">
-        <v>-0.00199999999995271</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C214">
         <v>-1.13686837721616e-13</v>
@@ -6647,7 +6647,7 @@
         <v>-86</v>
       </c>
       <c r="B216">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -6705,7 +6705,7 @@
         <v>-84</v>
       </c>
       <c r="B218">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -6734,7 +6734,7 @@
         <v>-83</v>
       </c>
       <c r="B219">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>-81</v>
       </c>
       <c r="B221">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -6821,7 +6821,7 @@
         <v>-80</v>
       </c>
       <c r="B222">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C222">
         <v>0.00100000000009004</v>
@@ -6908,7 +6908,7 @@
         <v>-77</v>
       </c>
       <c r="B225">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C225">
         <v>-1.13686837721616e-13</v>
@@ -6937,7 +6937,7 @@
         <v>-76</v>
       </c>
       <c r="B226">
-        <v>-0.0040000000000191</v>
+        <v>0</v>
       </c>
       <c r="C226">
         <v>0.000999999999976353</v>
@@ -6966,7 +6966,7 @@
         <v>-75</v>
       </c>
       <c r="B227">
-        <v>-0.000999999999976353</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C227">
         <v>0.00100000000009004</v>
@@ -6995,7 +6995,7 @@
         <v>-74</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>-71</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C231">
         <v>0.000999999999976353</v>
@@ -7111,7 +7111,7 @@
         <v>-70</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>-69</v>
       </c>
       <c r="B233">
-        <v>-0.000999999999976353</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C233">
         <v>0.000999999999976353</v>
@@ -7169,7 +7169,7 @@
         <v>-68</v>
       </c>
       <c r="B234">
-        <v>-0.00299999999992906</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>0.000999999999976353</v>
@@ -7198,7 +7198,7 @@
         <v>-67</v>
       </c>
       <c r="B235">
-        <v>1.13686837721616e-13</v>
+        <v>0.00100000000009004</v>
       </c>
       <c r="C235">
         <v>0.000999999999976353</v>
@@ -7256,7 +7256,7 @@
         <v>-65</v>
       </c>
       <c r="B237">
-        <v>-0.00200000000006639</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -7314,7 +7314,7 @@
         <v>-63</v>
       </c>
       <c r="B239">
-        <v>1.13686837721616e-13</v>
+        <v>0.00100000000009004</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>-62</v>
       </c>
       <c r="B240">
-        <v>-0.00199999999995271</v>
+        <v>0.00100000000009004</v>
       </c>
       <c r="C240">
         <v>0.000999999999976353</v>
@@ -7372,7 +7372,7 @@
         <v>-61</v>
       </c>
       <c r="B241">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>-60</v>
       </c>
       <c r="B242">
-        <v>-0.00100000000009004</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C242">
         <v>0.000999999999976353</v>
@@ -7575,7 +7575,7 @@
         <v>-54</v>
       </c>
       <c r="B248">
-        <v>1.13686837721616e-13</v>
+        <v>0.00100000000009004</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -7865,7 +7865,7 @@
         <v>-44</v>
       </c>
       <c r="B258">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>-43</v>
       </c>
       <c r="B259">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C259">
         <v>-1.13686837721616e-13</v>
@@ -7923,7 +7923,7 @@
         <v>-42</v>
       </c>
       <c r="B260">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C260">
         <v>-0.00100000000009004</v>
@@ -7952,7 +7952,7 @@
         <v>-41</v>
       </c>
       <c r="B261">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -8039,7 +8039,7 @@
         <v>-38</v>
       </c>
       <c r="B264">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C264">
         <v>-0.000999999999976353</v>
@@ -8068,7 +8068,7 @@
         <v>-37</v>
       </c>
       <c r="B265">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -8097,7 +8097,7 @@
         <v>-36</v>
       </c>
       <c r="B266">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>-34</v>
       </c>
       <c r="B268">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C268">
         <v>-0.00100000000009004</v>
@@ -8184,7 +8184,7 @@
         <v>-33</v>
       </c>
       <c r="B269">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>-27</v>
       </c>
       <c r="B275">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C275">
         <v>-0.00100000000009004</v>
@@ -8387,7 +8387,7 @@
         <v>-26</v>
       </c>
       <c r="B276">
-        <v>-0.00300000000004275</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C276">
         <v>1.13686837721616e-13</v>
@@ -8416,7 +8416,7 @@
         <v>-25</v>
       </c>
       <c r="B277">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>-23</v>
       </c>
       <c r="B279">
-        <v>-0.00299999999992906</v>
+        <v>0</v>
       </c>
       <c r="C279">
         <v>-1.13686837721616e-13</v>
@@ -8532,7 +8532,7 @@
         <v>-21</v>
       </c>
       <c r="B281">
-        <v>-0.00299999999992906</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>-19</v>
       </c>
       <c r="B283">
-        <v>-0.00199999999983902</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>-0.0010000000000332</v>
       </c>
       <c r="F283">
-        <v>8.88178419700125e-16</v>
+        <v>0.00100000000000033</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -8677,7 +8677,7 @@
         <v>-16</v>
       </c>
       <c r="B286">
-        <v>-0.00199999999995271</v>
+        <v>0.00100000000009004</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -8706,7 +8706,7 @@
         <v>-15</v>
       </c>
       <c r="B287">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -8793,7 +8793,7 @@
         <v>-12</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>0.00100000000009004</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>-11</v>
       </c>
       <c r="B291">
-        <v>-0.000999999999976353</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>-10</v>
       </c>
       <c r="B292">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -8880,7 +8880,7 @@
         <v>-9</v>
       </c>
       <c r="B293">
-        <v>-0.00200000000006639</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>-8</v>
       </c>
       <c r="B294">
-        <v>-0.00200000000006639</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>-7</v>
       </c>
       <c r="B295">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C295">
         <v>-0.00100000000009004</v>
@@ -8967,7 +8967,7 @@
         <v>-6</v>
       </c>
       <c r="B296">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>-1</v>
       </c>
       <c r="B301">
-        <v>-0.00100000000009004</v>
+        <v>0</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="B302">
-        <v>-0.00199999999995271</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -9228,7 +9228,7 @@
         <v>3</v>
       </c>
       <c r="B305">
-        <v>-0.0010000000000332</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>4</v>
       </c>
       <c r="B306">
-        <v>-0.0010000000000332</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C306">
         <v>-5.6843418860808e-14</v>
@@ -9315,7 +9315,7 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C308">
         <v>5.6843418860808e-14</v>
@@ -9344,7 +9344,7 @@
         <v>7</v>
       </c>
       <c r="B309">
-        <v>-0.000999999999976353</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C309">
         <v>5.6843418860808e-14</v>
@@ -9402,7 +9402,7 @@
         <v>9</v>
       </c>
       <c r="B311">
-        <v>-0.0010000000000332</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C311">
         <v>5.6843418860808e-14</v>
@@ -9460,7 +9460,7 @@
         <v>11</v>
       </c>
       <c r="B313">
-        <v>-0.00200000000000955</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>13</v>
       </c>
       <c r="B315">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>15</v>
       </c>
       <c r="B317">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>17</v>
       </c>
       <c r="B319">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>20</v>
       </c>
       <c r="B322">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -9808,7 +9808,7 @@
         <v>23</v>
       </c>
       <c r="B325">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>26</v>
       </c>
       <c r="B328">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -10475,7 +10475,7 @@
         <v>46</v>
       </c>
       <c r="B348">
-        <v>-0.000999999999990564</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -10649,7 +10649,7 @@
         <v>52</v>
       </c>
       <c r="B354">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -10765,7 +10765,7 @@
         <v>56</v>
       </c>
       <c r="B358">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>79</v>
       </c>
       <c r="B381">
-        <v>0.000999999999997669</v>
+        <v>0.00199999999999534</v>
       </c>
       <c r="C381">
         <v>0.00100000000000477</v>
@@ -11838,7 +11838,7 @@
         <v>93</v>
       </c>
       <c r="B395">
-        <v>0.000999999999990564</v>
+        <v>0.00199999999999534</v>
       </c>
       <c r="C395">
         <v>0.000999999999990564</v>
@@ -11954,7 +11954,7 @@
         <v>97</v>
       </c>
       <c r="B399">
-        <v>0.000999999999976353</v>
+        <v>0.00199999999998113</v>
       </c>
       <c r="C399">
         <v>2.8421709430404e-14</v>
@@ -12012,7 +12012,7 @@
         <v>99</v>
       </c>
       <c r="B401">
-        <v>0</v>
+        <v>0.00100000000000477</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>104</v>
       </c>
       <c r="B406">
-        <v>0</v>
+        <v>0.00100000000000477</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -12273,7 +12273,7 @@
         <v>108</v>
       </c>
       <c r="B410">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C410">
         <v>0.000999999999976353</v>
@@ -12331,7 +12331,7 @@
         <v>110</v>
       </c>
       <c r="B412">
-        <v>0.000999999999976353</v>
+        <v>0.00200000000000955</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -12360,7 +12360,7 @@
         <v>111</v>
       </c>
       <c r="B413">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -12534,7 +12534,7 @@
         <v>117</v>
       </c>
       <c r="B419">
-        <v>0.0010000000000332</v>
+        <v>0.00200000000006639</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>118</v>
       </c>
       <c r="B420">
-        <v>5.6843418860808e-14</v>
+        <v>0.0010000000000332</v>
       </c>
       <c r="C420">
         <v>5.6843418860808e-14</v>
@@ -12650,7 +12650,7 @@
         <v>121</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C423">
         <v>5.6843418860808e-14</v>
@@ -12737,7 +12737,7 @@
         <v>124</v>
       </c>
       <c r="B426">
-        <v>0</v>
+        <v>0.00200000000006639</v>
       </c>
       <c r="C426">
         <v>-1.13686837721616e-13</v>
@@ -12766,7 +12766,7 @@
         <v>125</v>
       </c>
       <c r="B427">
-        <v>0.00100000000009004</v>
+        <v>0.00200000000006639</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -12911,7 +12911,7 @@
         <v>130</v>
       </c>
       <c r="B432">
-        <v>0.000999999999976353</v>
+        <v>0.00199999999995271</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -12940,7 +12940,7 @@
         <v>131</v>
       </c>
       <c r="B433">
-        <v>-0.000999999999976353</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -12969,7 +12969,7 @@
         <v>132</v>
       </c>
       <c r="B434">
-        <v>1.13686837721616e-13</v>
+        <v>0.00100000000009004</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -12998,7 +12998,7 @@
         <v>133</v>
       </c>
       <c r="B435">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C435">
         <v>1.13686837721616e-13</v>
@@ -13027,7 +13027,7 @@
         <v>134</v>
       </c>
       <c r="B436">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>135</v>
       </c>
       <c r="B437">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -13114,7 +13114,7 @@
         <v>137</v>
       </c>
       <c r="B439">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C439">
         <v>1.13686837721616e-13</v>
@@ -13143,7 +13143,7 @@
         <v>138</v>
       </c>
       <c r="B440">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C440">
         <v>-1.13686837721616e-13</v>
@@ -13230,7 +13230,7 @@
         <v>141</v>
       </c>
       <c r="B443">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C443">
         <v>-0.000999999999976353</v>
@@ -13404,7 +13404,7 @@
         <v>147</v>
       </c>
       <c r="B449">
-        <v>-0.00299999999992906</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C449">
         <v>-0.00199999999995271</v>
@@ -13433,7 +13433,7 @@
         <v>148</v>
       </c>
       <c r="B450">
-        <v>-0.0040000000000191</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C450">
         <v>-0.00100000000009004</v>
@@ -13462,7 +13462,7 @@
         <v>149</v>
       </c>
       <c r="B451">
-        <v>-0.00199999999995271</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C451">
         <v>-0.00200000000006639</v>
@@ -13520,7 +13520,7 @@
         <v>151</v>
       </c>
       <c r="B453">
-        <v>-0.00399999999990541</v>
+        <v>-0.00299999999992906</v>
       </c>
       <c r="C453">
         <v>-0.00200000000006639</v>
@@ -13549,7 +13549,7 @@
         <v>152</v>
       </c>
       <c r="B454">
-        <v>-0.00599999999997181</v>
+        <v>-0.00299999999992906</v>
       </c>
       <c r="C454">
         <v>-0.00299999999992906</v>
@@ -13636,7 +13636,7 @@
         <v>155</v>
       </c>
       <c r="B457">
-        <v>-0.00499999999999545</v>
+        <v>-0.0040000000000191</v>
       </c>
       <c r="C457">
         <v>-0.0040000000000191</v>
@@ -13665,7 +13665,7 @@
         <v>156</v>
       </c>
       <c r="B458">
-        <v>-0.00700000000006185</v>
+        <v>-0.0040000000000191</v>
       </c>
       <c r="C458">
         <v>-0.00399999999990541</v>
@@ -13694,7 +13694,7 @@
         <v>157</v>
       </c>
       <c r="B459">
-        <v>-0.00599999999997181</v>
+        <v>-0.0040000000000191</v>
       </c>
       <c r="C459">
         <v>-0.00399999999990541</v>
@@ -13723,7 +13723,7 @@
         <v>158</v>
       </c>
       <c r="B460">
-        <v>-0.00499999999999545</v>
+        <v>-0.00399999999990541</v>
       </c>
       <c r="C460">
         <v>-0.00499999999999545</v>
@@ -13868,7 +13868,7 @@
         <v>163</v>
       </c>
       <c r="B465">
-        <v>-0.0080000000000382</v>
+        <v>-0.00699999999994816</v>
       </c>
       <c r="C465">
         <v>-0.00799999999992451</v>
@@ -13897,7 +13897,7 @@
         <v>164</v>
       </c>
       <c r="B466">
-        <v>-0.0109999999999673</v>
+        <v>-0.0080000000000382</v>
       </c>
       <c r="C466">
         <v>-0.00799999999992451</v>
@@ -13926,7 +13926,7 @@
         <v>165</v>
       </c>
       <c r="B467">
-        <v>-0.00999999999999091</v>
+        <v>-0.00900000000001455</v>
       </c>
       <c r="C467">
         <v>-0.00799999999992451</v>
@@ -13955,7 +13955,7 @@
         <v>166</v>
       </c>
       <c r="B468">
-        <v>-0.00999999999987722</v>
+        <v>-0.00899999999990087</v>
       </c>
       <c r="C468">
         <v>-0.00900000000001455</v>
@@ -13984,7 +13984,7 @@
         <v>167</v>
       </c>
       <c r="B469">
-        <v>-0.0120000000000573</v>
+        <v>-0.00999999999999091</v>
       </c>
       <c r="C469">
         <v>-0.00900000000001455</v>
@@ -14013,7 +14013,7 @@
         <v>168</v>
       </c>
       <c r="B470">
-        <v>-0.0110000000000809</v>
+        <v>-0.00999999999999091</v>
       </c>
       <c r="C470">
         <v>-0.00900000000001455</v>
@@ -14158,7 +14158,7 @@
         <v>173</v>
       </c>
       <c r="B475">
-        <v>-0.01299999999992</v>
+        <v>-0.0109999999999673</v>
       </c>
       <c r="C475">
         <v>-0.00900000000012824</v>
@@ -14187,7 +14187,7 @@
         <v>174</v>
       </c>
       <c r="B476">
-        <v>-0.0119999999999436</v>
+        <v>-0.0109999999999673</v>
       </c>
       <c r="C476">
         <v>-0.00900000000001455</v>
@@ -14216,7 +14216,7 @@
         <v>175</v>
       </c>
       <c r="B477">
-        <v>-0.01299999999992</v>
+        <v>-0.0109999999999673</v>
       </c>
       <c r="C477">
         <v>-0.00900000000001455</v>
@@ -14332,7 +14332,7 @@
         <v>179</v>
       </c>
       <c r="B481">
-        <v>-0.0130000000000337</v>
+        <v>-0.0110000000000809</v>
       </c>
       <c r="C481">
         <v>-0.0080000000000382</v>
@@ -14361,7 +14361,7 @@
         <v>180</v>
       </c>
       <c r="B482">
-        <v>-0.0130000000000337</v>
+        <v>-0.0120000000000573</v>
       </c>
       <c r="C482">
         <v>-0.00699999999994816</v>
@@ -14390,7 +14390,7 @@
         <v>181</v>
       </c>
       <c r="B483">
-        <v>-0.01299999999992</v>
+        <v>-0.0119999999999436</v>
       </c>
       <c r="C483">
         <v>-0.00700000000006185</v>
@@ -14506,7 +14506,7 @@
         <v>185</v>
       </c>
       <c r="B487">
-        <v>-0.0130000000000337</v>
+        <v>-0.0120000000000573</v>
       </c>
       <c r="C487">
         <v>-0.00699999999994816</v>
@@ -14535,7 +14535,7 @@
         <v>186</v>
       </c>
       <c r="B488">
-        <v>-0.0130000000000337</v>
+        <v>-0.0119999999999436</v>
       </c>
       <c r="C488">
         <v>-0.00699999999994816</v>
@@ -14593,7 +14593,7 @@
         <v>188</v>
       </c>
       <c r="B490">
-        <v>-0.01400000000001</v>
+        <v>-0.0130000000000337</v>
       </c>
       <c r="C490">
         <v>-0.00699999999994816</v>
@@ -14622,7 +14622,7 @@
         <v>189</v>
       </c>
       <c r="B491">
-        <v>-0.0150000000000432</v>
+        <v>-0.0130000000000337</v>
       </c>
       <c r="C491">
         <v>-0.00700000000006185</v>
@@ -14709,7 +14709,7 @@
         <v>192</v>
       </c>
       <c r="B494">
-        <v>-0.0159999999999627</v>
+        <v>-0.0149999999999295</v>
       </c>
       <c r="C494">
         <v>-0.00799999999998136</v>
@@ -14738,7 +14738,7 @@
         <v>193</v>
       </c>
       <c r="B495">
-        <v>-0.0159999999999627</v>
+        <v>-0.0149999999999864</v>
       </c>
       <c r="C495">
         <v>-0.00900000000001455</v>
@@ -14796,7 +14796,7 @@
         <v>195</v>
       </c>
       <c r="B497">
-        <v>-0.0159999999999627</v>
+        <v>-0.0149999999999295</v>
       </c>
       <c r="C497">
         <v>-0.00999999999999091</v>
@@ -14825,7 +14825,7 @@
         <v>196</v>
       </c>
       <c r="B498">
-        <v>-0.0159999999999627</v>
+        <v>-0.0149999999999864</v>
       </c>
       <c r="C498">
         <v>-0.0120000000000573</v>
@@ -14854,7 +14854,7 @@
         <v>197</v>
       </c>
       <c r="B499">
-        <v>-0.0169999999999959</v>
+        <v>-0.0149999999999864</v>
       </c>
       <c r="C499">
         <v>-0.0120000000000005</v>
@@ -14970,7 +14970,7 @@
         <v>201</v>
       </c>
       <c r="B503">
-        <v>-0.0150000000000432</v>
+        <v>-0.0140000000000668</v>
       </c>
       <c r="C503">
         <v>-0.0160000000000196</v>
@@ -14999,7 +14999,7 @@
         <v>202</v>
       </c>
       <c r="B504">
-        <v>-0.0150000000000432</v>
+        <v>-0.0130000000000337</v>
       </c>
       <c r="C504">
         <v>-0.0170000000000528</v>
@@ -15086,7 +15086,7 @@
         <v>205</v>
       </c>
       <c r="B507">
-        <v>-0.0100000000000477</v>
+        <v>-0.00900000000001455</v>
       </c>
       <c r="C507">
         <v>-0.0189999999999486</v>
@@ -15115,7 +15115,7 @@
         <v>206</v>
       </c>
       <c r="B508">
-        <v>-0.007000000000005</v>
+        <v>-0.00600000000002865</v>
       </c>
       <c r="C508">
         <v>-0.0200000000000387</v>
@@ -15173,7 +15173,7 @@
         <v>208</v>
       </c>
       <c r="B510">
-        <v>-0.00200000000000955</v>
+        <v>-0.0010000000000332</v>
       </c>
       <c r="C510">
         <v>-0.0199999999999818</v>
@@ -15260,7 +15260,7 @@
         <v>211</v>
       </c>
       <c r="B513">
-        <v>0.00999999999999091</v>
+        <v>0.0109999999999673</v>
       </c>
       <c r="C513">
         <v>-0.0190000000000623</v>
@@ -15289,7 +15289,7 @@
         <v>212</v>
       </c>
       <c r="B514">
-        <v>0.0160000000000196</v>
+        <v>0.0169999999999959</v>
       </c>
       <c r="C514">
         <v>-0.0179999999999723</v>
@@ -15318,7 +15318,7 @@
         <v>213</v>
       </c>
       <c r="B515">
-        <v>0.0199999999999818</v>
+        <v>0.021000000000015</v>
       </c>
       <c r="C515">
         <v>-0.0169999999999391</v>
@@ -15347,7 +15347,7 @@
         <v>214</v>
       </c>
       <c r="B516">
-        <v>0.0270000000000437</v>
+        <v>0.02800000000002</v>
       </c>
       <c r="C516">
         <v>-0.0169999999999959</v>
@@ -15405,7 +15405,7 @@
         <v>216</v>
       </c>
       <c r="B518">
-        <v>0.0369999999999777</v>
+        <v>0.0380000000000109</v>
       </c>
       <c r="C518">
         <v>-0.01400000000001</v>
@@ -15463,7 +15463,7 @@
         <v>218</v>
       </c>
       <c r="B520">
-        <v>0.0430000000000064</v>
+        <v>0.0440000000000396</v>
       </c>
       <c r="C520">
         <v>-0.01400000000001</v>
@@ -15521,7 +15521,7 @@
         <v>220</v>
       </c>
       <c r="B522">
-        <v>0.0389999999999873</v>
+        <v>0.0400000000000205</v>
       </c>
       <c r="C522">
         <v>-0.0149999999999864</v>
@@ -15550,7 +15550,7 @@
         <v>221</v>
       </c>
       <c r="B523">
-        <v>0.0319999999999823</v>
+        <v>0.0330000000000155</v>
       </c>
       <c r="C523">
         <v>-0.0159999999999627</v>
@@ -15637,7 +15637,7 @@
         <v>224</v>
       </c>
       <c r="B526">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C526">
         <v>-0.021000000000015</v>
@@ -15666,7 +15666,7 @@
         <v>225</v>
       </c>
       <c r="B527">
-        <v>-0.0120000000000573</v>
+        <v>-0.0110000000000241</v>
       </c>
       <c r="C527">
         <v>-0.0240000000000578</v>
@@ -15695,7 +15695,7 @@
         <v>226</v>
       </c>
       <c r="B528">
-        <v>-0.0199999999999818</v>
+        <v>-0.0189999999999486</v>
       </c>
       <c r="C528">
         <v>-0.0279999999999632</v>
@@ -15724,7 +15724,7 @@
         <v>227</v>
       </c>
       <c r="B529">
-        <v>-0.0260000000000105</v>
+        <v>-0.0249999999999773</v>
       </c>
       <c r="C529">
         <v>-0.0320000000000391</v>
@@ -15811,7 +15811,7 @@
         <v>230</v>
       </c>
       <c r="B532">
-        <v>-0.04200000000003</v>
+        <v>-0.0410000000000537</v>
       </c>
       <c r="C532">
         <v>-0.0430000000000064</v>
@@ -15840,7 +15840,7 @@
         <v>231</v>
       </c>
       <c r="B533">
-        <v>-0.0459999999999354</v>
+        <v>-0.0449999999999591</v>
       </c>
       <c r="C533">
         <v>-0.0460000000000491</v>
@@ -16101,7 +16101,7 @@
         <v>240</v>
       </c>
       <c r="B542">
-        <v>-0.0570000000000164</v>
+        <v>-0.0559999999999832</v>
       </c>
       <c r="C542">
         <v>-0.0559999999999832</v>
@@ -16130,7 +16130,7 @@
         <v>241</v>
       </c>
       <c r="B543">
-        <v>-0.0550000000000068</v>
+        <v>-0.0540000000000305</v>
       </c>
       <c r="C543">
         <v>-0.05600000000004</v>
@@ -16275,7 +16275,7 @@
         <v>246</v>
       </c>
       <c r="B548">
-        <v>-0.0459999999999923</v>
+        <v>-0.0449999999999875</v>
       </c>
       <c r="C548">
         <v>-0.0450000000000159</v>
@@ -16362,7 +16362,7 @@
         <v>249</v>
       </c>
       <c r="B551">
-        <v>-0.0389999999999873</v>
+        <v>-0.0380000000000109</v>
       </c>
       <c r="C551">
         <v>-0.0380000000000109</v>
@@ -16507,7 +16507,7 @@
         <v>254</v>
       </c>
       <c r="B556">
-        <v>-0.0300000000000011</v>
+        <v>-0.0289999999999964</v>
       </c>
       <c r="C556">
         <v>-0.0279999999999916</v>
@@ -16710,7 +16710,7 @@
         <v>261</v>
       </c>
       <c r="B563">
-        <v>-0.019999999999996</v>
+        <v>-0.0190000000000055</v>
       </c>
       <c r="C563">
         <v>-0.0190000000000055</v>
@@ -16913,7 +16913,7 @@
         <v>268</v>
       </c>
       <c r="B570">
-        <v>-0.0139999999999816</v>
+        <v>-0.012999999999991</v>
       </c>
       <c r="C570">
         <v>-0.01400000000001</v>
@@ -16942,7 +16942,7 @@
         <v>269</v>
       </c>
       <c r="B571">
-        <v>-0.012999999999991</v>
+        <v>-0.0119999999999862</v>
       </c>
       <c r="C571">
         <v>-0.0120000000000005</v>
@@ -17087,7 +17087,7 @@
         <v>274</v>
       </c>
       <c r="B576">
-        <v>-0.0109999999999957</v>
+        <v>-0.00999999999999091</v>
       </c>
       <c r="C576">
         <v>-0.0100000000000051</v>
@@ -17232,7 +17232,7 @@
         <v>279</v>
       </c>
       <c r="B581">
-        <v>-0.00900000000000034</v>
+        <v>-0.00799999999999557</v>
       </c>
       <c r="C581">
         <v>-0.00799999999999557</v>
@@ -35441,7 +35441,7 @@
         <v>-298</v>
       </c>
       <c r="B4">
-        <v>138.388</v>
+        <v>138.389</v>
       </c>
       <c r="C4">
         <v>138.474</v>
@@ -35644,7 +35644,7 @@
         <v>-291</v>
       </c>
       <c r="B11">
-        <v>160.463</v>
+        <v>160.464</v>
       </c>
       <c r="C11">
         <v>160.599</v>
@@ -35731,7 +35731,7 @@
         <v>-288</v>
       </c>
       <c r="B14">
-        <v>171.678</v>
+        <v>171.679</v>
       </c>
       <c r="C14">
         <v>171.845</v>
@@ -35905,7 +35905,7 @@
         <v>-282</v>
       </c>
       <c r="B20">
-        <v>198.171</v>
+        <v>198.172</v>
       </c>
       <c r="C20">
         <v>198.427</v>
@@ -35963,7 +35963,7 @@
         <v>-280</v>
       </c>
       <c r="B22">
-        <v>208.443</v>
+        <v>208.444</v>
       </c>
       <c r="C22">
         <v>208.741</v>
@@ -36108,7 +36108,7 @@
         <v>-275</v>
       </c>
       <c r="B27">
-        <v>238.057</v>
+        <v>238.058</v>
       </c>
       <c r="C27">
         <v>238.494</v>
@@ -36224,7 +36224,7 @@
         <v>-271</v>
       </c>
       <c r="B31">
-        <v>266.658</v>
+        <v>266.659</v>
       </c>
       <c r="C31">
         <v>267.262</v>
@@ -36282,7 +36282,7 @@
         <v>-269</v>
       </c>
       <c r="B33">
-        <v>282.943</v>
+        <v>282.944</v>
       </c>
       <c r="C33">
         <v>283.656</v>
@@ -36340,7 +36340,7 @@
         <v>-267</v>
       </c>
       <c r="B35">
-        <v>300.748</v>
+        <v>300.749</v>
       </c>
       <c r="C35">
         <v>301.595</v>
@@ -36398,7 +36398,7 @@
         <v>-265</v>
       </c>
       <c r="B37">
-        <v>320.243</v>
+        <v>320.244</v>
       </c>
       <c r="C37">
         <v>321.25</v>
@@ -36427,7 +36427,7 @@
         <v>-264</v>
       </c>
       <c r="B38">
-        <v>330.679</v>
+        <v>330.68</v>
       </c>
       <c r="C38">
         <v>331.78</v>
@@ -36485,7 +36485,7 @@
         <v>-262</v>
       </c>
       <c r="B40">
-        <v>353.048</v>
+        <v>353.049</v>
       </c>
       <c r="C40">
         <v>354.367</v>
@@ -36543,7 +36543,7 @@
         <v>-260</v>
       </c>
       <c r="B42">
-        <v>377.574</v>
+        <v>377.575</v>
       </c>
       <c r="C42">
         <v>379.159</v>
@@ -36572,7 +36572,7 @@
         <v>-259</v>
       </c>
       <c r="B43">
-        <v>390.704</v>
+        <v>390.705</v>
       </c>
       <c r="C43">
         <v>392.445</v>
@@ -36659,7 +36659,7 @@
         <v>-256</v>
       </c>
       <c r="B46">
-        <v>433.832</v>
+        <v>433.833</v>
       </c>
       <c r="C46">
         <v>436.151</v>
@@ -36775,7 +36775,7 @@
         <v>-252</v>
       </c>
       <c r="B50">
-        <v>500.61</v>
+        <v>500.613</v>
       </c>
       <c r="C50">
         <v>504.051</v>
@@ -36804,7 +36804,7 @@
         <v>-251</v>
       </c>
       <c r="B51">
-        <v>518.982</v>
+        <v>518.983</v>
       </c>
       <c r="C51">
         <v>522.784</v>
@@ -36949,7 +36949,7 @@
         <v>-246</v>
       </c>
       <c r="B56">
-        <v>619.377</v>
+        <v>619.378</v>
       </c>
       <c r="C56">
         <v>625.701</v>
@@ -36978,7 +36978,7 @@
         <v>-245</v>
       </c>
       <c r="B57">
-        <v>640.643</v>
+        <v>640.645</v>
       </c>
       <c r="C57">
         <v>647.649</v>
@@ -37007,7 +37007,7 @@
         <v>-244</v>
       </c>
       <c r="B58">
-        <v>662.034</v>
+        <v>662.036</v>
       </c>
       <c r="C58">
         <v>669.793</v>
@@ -37036,7 +37036,7 @@
         <v>-243</v>
       </c>
       <c r="B59">
-        <v>683.387</v>
+        <v>683.39</v>
       </c>
       <c r="C59">
         <v>691.977</v>
@@ -37065,7 +37065,7 @@
         <v>-242</v>
       </c>
       <c r="B60">
-        <v>704.518</v>
+        <v>704.52</v>
       </c>
       <c r="C60">
         <v>714.021</v>
@@ -37094,7 +37094,7 @@
         <v>-241</v>
       </c>
       <c r="B61">
-        <v>725.223</v>
+        <v>725.225</v>
       </c>
       <c r="C61">
         <v>735.729</v>
@@ -37123,7 +37123,7 @@
         <v>-240</v>
       </c>
       <c r="B62">
-        <v>745.284</v>
+        <v>745.285</v>
       </c>
       <c r="C62">
         <v>756.888</v>
@@ -37152,7 +37152,7 @@
         <v>-239</v>
       </c>
       <c r="B63">
-        <v>764.476</v>
+        <v>764.477</v>
       </c>
       <c r="C63">
         <v>777.279</v>
@@ -37239,7 +37239,7 @@
         <v>-236</v>
       </c>
       <c r="B66">
-        <v>814.652</v>
+        <v>814.654</v>
       </c>
       <c r="C66">
         <v>831.709</v>
@@ -37268,7 +37268,7 @@
         <v>-235</v>
       </c>
       <c r="B67">
-        <v>828.276</v>
+        <v>828.279</v>
       </c>
       <c r="C67">
         <v>846.988</v>
@@ -37355,7 +37355,7 @@
         <v>-232</v>
       </c>
       <c r="B70">
-        <v>858.157</v>
+        <v>858.16</v>
       </c>
       <c r="C70">
         <v>882.617</v>
@@ -37413,7 +37413,7 @@
         <v>-230</v>
       </c>
       <c r="B72">
-        <v>868.728</v>
+        <v>868.73</v>
       </c>
       <c r="C72">
         <v>897.745</v>
@@ -37442,7 +37442,7 @@
         <v>-229</v>
       </c>
       <c r="B73">
-        <v>871.389</v>
+        <v>871.39</v>
       </c>
       <c r="C73">
         <v>902.932</v>
@@ -37471,7 +37471,7 @@
         <v>-228</v>
       </c>
       <c r="B74">
-        <v>872.464</v>
+        <v>872.466</v>
       </c>
       <c r="C74">
         <v>906.717</v>
@@ -37529,7 +37529,7 @@
         <v>-226</v>
       </c>
       <c r="B76">
-        <v>870.496</v>
+        <v>870.5</v>
       </c>
       <c r="C76">
         <v>910.78</v>
@@ -37558,7 +37558,7 @@
         <v>-225</v>
       </c>
       <c r="B77">
-        <v>867.798</v>
+        <v>867.799</v>
       </c>
       <c r="C77">
         <v>911.438</v>
@@ -37616,7 +37616,7 @@
         <v>-223</v>
       </c>
       <c r="B79">
-        <v>859.802</v>
+        <v>859.803</v>
       </c>
       <c r="C79">
         <v>910.963</v>
@@ -37645,7 +37645,7 @@
         <v>-222</v>
       </c>
       <c r="B80">
-        <v>854.814</v>
+        <v>854.817</v>
       </c>
       <c r="C80">
         <v>910.193</v>
@@ -37674,7 +37674,7 @@
         <v>-221</v>
       </c>
       <c r="B81">
-        <v>849.349</v>
+        <v>849.351</v>
       </c>
       <c r="C81">
         <v>909.285</v>
@@ -37703,7 +37703,7 @@
         <v>-220</v>
       </c>
       <c r="B82">
-        <v>843.512</v>
+        <v>843.515</v>
       </c>
       <c r="C82">
         <v>908.381</v>
@@ -37732,7 +37732,7 @@
         <v>-219</v>
       </c>
       <c r="B83">
-        <v>837.394</v>
+        <v>837.397</v>
       </c>
       <c r="C83">
         <v>907.606</v>
@@ -37761,7 +37761,7 @@
         <v>-218</v>
       </c>
       <c r="B84">
-        <v>831.063</v>
+        <v>831.065</v>
       </c>
       <c r="C84">
         <v>907.062</v>
@@ -37848,7 +37848,7 @@
         <v>-215</v>
       </c>
       <c r="B87">
-        <v>811.148</v>
+        <v>811.15</v>
       </c>
       <c r="C87">
         <v>907.542</v>
@@ -37935,7 +37935,7 @@
         <v>-212</v>
       </c>
       <c r="B90">
-        <v>789.788</v>
+        <v>789.789</v>
       </c>
       <c r="C90">
         <v>911.83</v>
@@ -37993,7 +37993,7 @@
         <v>-210</v>
       </c>
       <c r="B92">
-        <v>774.217</v>
+        <v>774.219</v>
       </c>
       <c r="C92">
         <v>916.588</v>
@@ -38138,7 +38138,7 @@
         <v>-205</v>
       </c>
       <c r="B97">
-        <v>727.391</v>
+        <v>727.392</v>
       </c>
       <c r="C97">
         <v>930.605</v>
@@ -38196,7 +38196,7 @@
         <v>-203</v>
       </c>
       <c r="B99">
-        <v>706.516</v>
+        <v>706.517</v>
       </c>
       <c r="C99">
         <v>934.671</v>
@@ -38457,7 +38457,7 @@
         <v>-194</v>
       </c>
       <c r="B108">
-        <v>751.148</v>
+        <v>751.15</v>
       </c>
       <c r="C108">
         <v>922.514</v>
@@ -38486,7 +38486,7 @@
         <v>-193</v>
       </c>
       <c r="B109">
-        <v>759.037</v>
+        <v>759.038</v>
       </c>
       <c r="C109">
         <v>918.625</v>
@@ -38515,7 +38515,7 @@
         <v>-192</v>
       </c>
       <c r="B110">
-        <v>766.181</v>
+        <v>766.182</v>
       </c>
       <c r="C110">
         <v>914.58</v>
@@ -38573,7 +38573,7 @@
         <v>-190</v>
       </c>
       <c r="B112">
-        <v>778.523</v>
+        <v>778.524</v>
       </c>
       <c r="C112">
         <v>906.48</v>
@@ -38602,7 +38602,7 @@
         <v>-189</v>
       </c>
       <c r="B113">
-        <v>783.897</v>
+        <v>783.899</v>
       </c>
       <c r="C113">
         <v>902.631</v>
@@ -38631,7 +38631,7 @@
         <v>-188</v>
       </c>
       <c r="B114">
-        <v>788.861</v>
+        <v>788.863</v>
       </c>
       <c r="C114">
         <v>899.03</v>
@@ -38660,7 +38660,7 @@
         <v>-187</v>
       </c>
       <c r="B115">
-        <v>793.499</v>
+        <v>793.5</v>
       </c>
       <c r="C115">
         <v>895.742</v>
@@ -38689,7 +38689,7 @@
         <v>-186</v>
       </c>
       <c r="B116">
-        <v>797.881</v>
+        <v>797.882</v>
       </c>
       <c r="C116">
         <v>892.814</v>
@@ -38718,7 +38718,7 @@
         <v>-185</v>
       </c>
       <c r="B117">
-        <v>802.066</v>
+        <v>802.067</v>
       </c>
       <c r="C117">
         <v>890.272</v>
@@ -38747,7 +38747,7 @@
         <v>-184</v>
       </c>
       <c r="B118">
-        <v>806.099</v>
+        <v>806.1</v>
       </c>
       <c r="C118">
         <v>888.126</v>
@@ -38805,7 +38805,7 @@
         <v>-182</v>
       </c>
       <c r="B120">
-        <v>813.784</v>
+        <v>813.785</v>
       </c>
       <c r="C120">
         <v>884.95</v>
@@ -38834,7 +38834,7 @@
         <v>-181</v>
       </c>
       <c r="B121">
-        <v>817.428</v>
+        <v>817.431</v>
       </c>
       <c r="C121">
         <v>883.838</v>
@@ -38863,7 +38863,7 @@
         <v>-180</v>
       </c>
       <c r="B122">
-        <v>820.904</v>
+        <v>820.907</v>
       </c>
       <c r="C122">
         <v>882.958</v>
@@ -38892,7 +38892,7 @@
         <v>-179</v>
       </c>
       <c r="B123">
-        <v>824.157</v>
+        <v>824.159</v>
       </c>
       <c r="C123">
         <v>882.22</v>
@@ -38921,7 +38921,7 @@
         <v>-178</v>
       </c>
       <c r="B124">
-        <v>827.112</v>
+        <v>827.114</v>
       </c>
       <c r="C124">
         <v>881.517</v>
@@ -38950,7 +38950,7 @@
         <v>-177</v>
       </c>
       <c r="B125">
-        <v>829.676</v>
+        <v>829.678</v>
       </c>
       <c r="C125">
         <v>880.723</v>
@@ -38979,7 +38979,7 @@
         <v>-176</v>
       </c>
       <c r="B126">
-        <v>831.737</v>
+        <v>831.74</v>
       </c>
       <c r="C126">
         <v>879.7</v>
@@ -38991,7 +38991,7 @@
         <v>716.798</v>
       </c>
       <c r="F126">
-        <v>5.026</v>
+        <v>5.027</v>
       </c>
       <c r="G126">
         <v>5.098</v>
@@ -39008,7 +39008,7 @@
         <v>-175</v>
       </c>
       <c r="B127">
-        <v>833.17</v>
+        <v>833.173</v>
       </c>
       <c r="C127">
         <v>878.292</v>
@@ -39037,7 +39037,7 @@
         <v>-174</v>
       </c>
       <c r="B128">
-        <v>833.836</v>
+        <v>833.837</v>
       </c>
       <c r="C128">
         <v>876.336</v>
@@ -39124,7 +39124,7 @@
         <v>-171</v>
       </c>
       <c r="B131">
-        <v>829.749</v>
+        <v>829.751</v>
       </c>
       <c r="C131">
         <v>865.489</v>
@@ -39153,7 +39153,7 @@
         <v>-170</v>
       </c>
       <c r="B132">
-        <v>825.887</v>
+        <v>825.889</v>
       </c>
       <c r="C132">
         <v>859.681</v>
@@ -39211,7 +39211,7 @@
         <v>-168</v>
       </c>
       <c r="B134">
-        <v>813.729</v>
+        <v>813.73</v>
       </c>
       <c r="C134">
         <v>844.003</v>
@@ -39240,7 +39240,7 @@
         <v>-167</v>
       </c>
       <c r="B135">
-        <v>805.301</v>
+        <v>805.304</v>
       </c>
       <c r="C135">
         <v>833.981</v>
@@ -39298,7 +39298,7 @@
         <v>-165</v>
       </c>
       <c r="B137">
-        <v>783.724</v>
+        <v>783.726</v>
       </c>
       <c r="C137">
         <v>809.501</v>
@@ -39327,7 +39327,7 @@
         <v>-164</v>
       </c>
       <c r="B138">
-        <v>770.688</v>
+        <v>770.689</v>
       </c>
       <c r="C138">
         <v>795.145</v>
@@ -39385,7 +39385,7 @@
         <v>-162</v>
       </c>
       <c r="B140">
-        <v>740.707</v>
+        <v>740.71</v>
       </c>
       <c r="C140">
         <v>762.768</v>
@@ -39443,7 +39443,7 @@
         <v>-160</v>
       </c>
       <c r="B142">
-        <v>706.66</v>
+        <v>706.661</v>
       </c>
       <c r="C142">
         <v>726.621</v>
@@ -39472,7 +39472,7 @@
         <v>-159</v>
       </c>
       <c r="B143">
-        <v>688.601</v>
+        <v>688.602</v>
       </c>
       <c r="C143">
         <v>707.619</v>
@@ -39530,7 +39530,7 @@
         <v>-157</v>
       </c>
       <c r="B145">
-        <v>651.423</v>
+        <v>651.426</v>
       </c>
       <c r="C145">
         <v>668.758</v>
@@ -39588,7 +39588,7 @@
         <v>-155</v>
       </c>
       <c r="B147">
-        <v>614.071</v>
+        <v>614.072</v>
       </c>
       <c r="C147">
         <v>629.968</v>
@@ -39675,7 +39675,7 @@
         <v>-152</v>
       </c>
       <c r="B150">
-        <v>560.304</v>
+        <v>560.307</v>
       </c>
       <c r="C150">
         <v>574.464</v>
@@ -39762,7 +39762,7 @@
         <v>-149</v>
       </c>
       <c r="B153">
-        <v>511.595</v>
+        <v>511.597</v>
       </c>
       <c r="C153">
         <v>524.441</v>
@@ -39791,7 +39791,7 @@
         <v>-148</v>
       </c>
       <c r="B154">
-        <v>496.745</v>
+        <v>496.746</v>
       </c>
       <c r="C154">
         <v>509.232</v>
@@ -39849,7 +39849,7 @@
         <v>-146</v>
       </c>
       <c r="B156">
-        <v>469.268</v>
+        <v>469.269</v>
       </c>
       <c r="C156">
         <v>481.143</v>
@@ -39878,7 +39878,7 @@
         <v>-145</v>
       </c>
       <c r="B157">
-        <v>456.655</v>
+        <v>456.657</v>
       </c>
       <c r="C157">
         <v>468.271</v>
@@ -40023,7 +40023,7 @@
         <v>-140</v>
       </c>
       <c r="B162">
-        <v>404.626</v>
+        <v>404.627</v>
       </c>
       <c r="C162">
         <v>415.308</v>
@@ -40052,7 +40052,7 @@
         <v>-139</v>
       </c>
       <c r="B163">
-        <v>396.332</v>
+        <v>396.334</v>
       </c>
       <c r="C163">
         <v>406.886</v>
@@ -40081,7 +40081,7 @@
         <v>-138</v>
       </c>
       <c r="B164">
-        <v>388.706</v>
+        <v>388.707</v>
       </c>
       <c r="C164">
         <v>399.147</v>
@@ -40110,7 +40110,7 @@
         <v>-137</v>
       </c>
       <c r="B165">
-        <v>381.729</v>
+        <v>381.73</v>
       </c>
       <c r="C165">
         <v>392.071</v>
@@ -40168,7 +40168,7 @@
         <v>-135</v>
       </c>
       <c r="B167">
-        <v>369.659</v>
+        <v>369.66</v>
       </c>
       <c r="C167">
         <v>379.838</v>
@@ -40197,7 +40197,7 @@
         <v>-134</v>
       </c>
       <c r="B168">
-        <v>364.536</v>
+        <v>364.537</v>
       </c>
       <c r="C168">
         <v>374.649</v>
@@ -40226,7 +40226,7 @@
         <v>-133</v>
       </c>
       <c r="B169">
-        <v>360.002</v>
+        <v>360.003</v>
       </c>
       <c r="C169">
         <v>370.058</v>
@@ -40255,7 +40255,7 @@
         <v>-132</v>
       </c>
       <c r="B170">
-        <v>356.045</v>
+        <v>356.047</v>
       </c>
       <c r="C170">
         <v>366.052</v>
@@ -40284,7 +40284,7 @@
         <v>-131</v>
       </c>
       <c r="B171">
-        <v>352.656</v>
+        <v>352.657</v>
       </c>
       <c r="C171">
         <v>362.619</v>
@@ -40313,7 +40313,7 @@
         <v>-130</v>
       </c>
       <c r="B172">
-        <v>349.822</v>
+        <v>349.823</v>
       </c>
       <c r="C172">
         <v>359.748</v>
@@ -40458,7 +40458,7 @@
         <v>-125</v>
       </c>
       <c r="B177">
-        <v>343.765</v>
+        <v>343.766</v>
       </c>
       <c r="C177">
         <v>353.584</v>
@@ -40487,7 +40487,7 @@
         <v>-124</v>
       </c>
       <c r="B178">
-        <v>344.149</v>
+        <v>344.151</v>
       </c>
       <c r="C178">
         <v>353.961</v>
@@ -40516,7 +40516,7 @@
         <v>-123</v>
       </c>
       <c r="B179">
-        <v>345.065</v>
+        <v>345.066</v>
       </c>
       <c r="C179">
         <v>354.872</v>
@@ -40690,7 +40690,7 @@
         <v>-117</v>
       </c>
       <c r="B185">
-        <v>361.918</v>
+        <v>361.919</v>
       </c>
       <c r="C185">
         <v>371.82</v>
@@ -40748,7 +40748,7 @@
         <v>-115</v>
       </c>
       <c r="B187">
-        <v>372.05</v>
+        <v>372.051</v>
       </c>
       <c r="C187">
         <v>382.046</v>
@@ -40922,7 +40922,7 @@
         <v>-109</v>
       </c>
       <c r="B193">
-        <v>417.412</v>
+        <v>417.413</v>
       </c>
       <c r="C193">
         <v>428</v>
@@ -40951,7 +40951,7 @@
         <v>-108</v>
       </c>
       <c r="B194">
-        <v>427.324</v>
+        <v>427.326</v>
       </c>
       <c r="C194">
         <v>438.072</v>
@@ -41038,7 +41038,7 @@
         <v>-105</v>
       </c>
       <c r="B197">
-        <v>461.41</v>
+        <v>461.411</v>
       </c>
       <c r="C197">
         <v>472.781</v>
@@ -41067,7 +41067,7 @@
         <v>-104</v>
       </c>
       <c r="B198">
-        <v>474.257</v>
+        <v>474.259</v>
       </c>
       <c r="C198">
         <v>485.892</v>
@@ -41125,7 +41125,7 @@
         <v>-102</v>
       </c>
       <c r="B200">
-        <v>502.205</v>
+        <v>502.206</v>
       </c>
       <c r="C200">
         <v>514.464</v>
@@ -41154,7 +41154,7 @@
         <v>-101</v>
       </c>
       <c r="B201">
-        <v>517.287</v>
+        <v>517.29</v>
       </c>
       <c r="C201">
         <v>529.915</v>
@@ -41224,7 +41224,7 @@
         <v>306.561</v>
       </c>
       <c r="F203">
-        <v>4.875</v>
+        <v>4.876</v>
       </c>
       <c r="G203">
         <v>4.876</v>
@@ -41241,7 +41241,7 @@
         <v>-98</v>
       </c>
       <c r="B204">
-        <v>566.681</v>
+        <v>566.683</v>
       </c>
       <c r="C204">
         <v>580.665</v>
@@ -41299,7 +41299,7 @@
         <v>-96</v>
       </c>
       <c r="B206">
-        <v>602.532</v>
+        <v>602.534</v>
       </c>
       <c r="C206">
         <v>617.666</v>
@@ -41328,7 +41328,7 @@
         <v>-95</v>
       </c>
       <c r="B207">
-        <v>621.084</v>
+        <v>621.085</v>
       </c>
       <c r="C207">
         <v>636.875</v>
@@ -41357,7 +41357,7 @@
         <v>-94</v>
       </c>
       <c r="B208">
-        <v>639.893</v>
+        <v>639.894</v>
       </c>
       <c r="C208">
         <v>656.403</v>
@@ -41386,7 +41386,7 @@
         <v>-93</v>
       </c>
       <c r="B209">
-        <v>658.813</v>
+        <v>658.815</v>
       </c>
       <c r="C209">
         <v>676.105</v>
@@ -41444,7 +41444,7 @@
         <v>-91</v>
       </c>
       <c r="B211">
-        <v>696.305</v>
+        <v>696.308</v>
       </c>
       <c r="C211">
         <v>715.363</v>
@@ -41485,7 +41485,7 @@
         <v>174.196</v>
       </c>
       <c r="F212">
-        <v>6.846</v>
+        <v>6.847</v>
       </c>
       <c r="G212">
         <v>6.848</v>
@@ -41502,7 +41502,7 @@
         <v>-89</v>
       </c>
       <c r="B213">
-        <v>732.042</v>
+        <v>732.043</v>
       </c>
       <c r="C213">
         <v>753.15</v>
@@ -41531,7 +41531,7 @@
         <v>-88</v>
       </c>
       <c r="B214">
-        <v>748.738</v>
+        <v>748.739</v>
       </c>
       <c r="C214">
         <v>770.986</v>
@@ -41589,7 +41589,7 @@
         <v>-86</v>
       </c>
       <c r="B216">
-        <v>778.804</v>
+        <v>778.807</v>
       </c>
       <c r="C216">
         <v>803.576</v>
@@ -41647,7 +41647,7 @@
         <v>-84</v>
       </c>
       <c r="B218">
-        <v>803.379</v>
+        <v>803.38</v>
       </c>
       <c r="C218">
         <v>831.018</v>
@@ -41676,7 +41676,7 @@
         <v>-83</v>
       </c>
       <c r="B219">
-        <v>813.333</v>
+        <v>813.335</v>
       </c>
       <c r="C219">
         <v>842.549</v>
@@ -41734,7 +41734,7 @@
         <v>-81</v>
       </c>
       <c r="B221">
-        <v>828.403</v>
+        <v>828.404</v>
       </c>
       <c r="C221">
         <v>861.086</v>
@@ -41763,7 +41763,7 @@
         <v>-80</v>
       </c>
       <c r="B222">
-        <v>833.572</v>
+        <v>833.575</v>
       </c>
       <c r="C222">
         <v>868.168</v>
@@ -41850,7 +41850,7 @@
         <v>-77</v>
       </c>
       <c r="B225">
-        <v>840.704</v>
+        <v>840.706</v>
       </c>
       <c r="C225">
         <v>881.886</v>
@@ -41879,7 +41879,7 @@
         <v>-76</v>
       </c>
       <c r="B226">
-        <v>840.723</v>
+        <v>840.727</v>
       </c>
       <c r="C226">
         <v>884.443</v>
@@ -41908,7 +41908,7 @@
         <v>-75</v>
       </c>
       <c r="B227">
-        <v>839.815</v>
+        <v>839.817</v>
       </c>
       <c r="C227">
         <v>886.27</v>
@@ -41937,7 +41937,7 @@
         <v>-74</v>
       </c>
       <c r="B228">
-        <v>838.123</v>
+        <v>838.124</v>
       </c>
       <c r="C228">
         <v>887.539</v>
@@ -42024,7 +42024,7 @@
         <v>-71</v>
       </c>
       <c r="B231">
-        <v>829.691</v>
+        <v>829.692</v>
       </c>
       <c r="C231">
         <v>889.606</v>
@@ -42053,7 +42053,7 @@
         <v>-70</v>
       </c>
       <c r="B232">
-        <v>826.135</v>
+        <v>826.136</v>
       </c>
       <c r="C232">
         <v>890.185</v>
@@ -42082,7 +42082,7 @@
         <v>-69</v>
       </c>
       <c r="B233">
-        <v>822.346</v>
+        <v>822.348</v>
       </c>
       <c r="C233">
         <v>890.905</v>
@@ -42111,7 +42111,7 @@
         <v>-68</v>
       </c>
       <c r="B234">
-        <v>818.379</v>
+        <v>818.382</v>
       </c>
       <c r="C234">
         <v>891.854</v>
@@ -42140,7 +42140,7 @@
         <v>-67</v>
       </c>
       <c r="B235">
-        <v>814.272</v>
+        <v>814.273</v>
       </c>
       <c r="C235">
         <v>893.103</v>
@@ -42198,7 +42198,7 @@
         <v>-65</v>
       </c>
       <c r="B237">
-        <v>805.656</v>
+        <v>805.659</v>
       </c>
       <c r="C237">
         <v>896.684</v>
@@ -42256,7 +42256,7 @@
         <v>-63</v>
       </c>
       <c r="B239">
-        <v>796.384</v>
+        <v>796.385</v>
       </c>
       <c r="C239">
         <v>901.82</v>
@@ -42285,7 +42285,7 @@
         <v>-62</v>
       </c>
       <c r="B240">
-        <v>791.382</v>
+        <v>791.385</v>
       </c>
       <c r="C240">
         <v>904.939</v>
@@ -42314,7 +42314,7 @@
         <v>-61</v>
       </c>
       <c r="B241">
-        <v>786.049</v>
+        <v>786.051</v>
       </c>
       <c r="C241">
         <v>908.367</v>
@@ -42343,7 +42343,7 @@
         <v>-60</v>
       </c>
       <c r="B242">
-        <v>780.3</v>
+        <v>780.302</v>
       </c>
       <c r="C242">
         <v>912.04</v>
@@ -42517,7 +42517,7 @@
         <v>-54</v>
       </c>
       <c r="B248">
-        <v>732.662</v>
+        <v>732.663</v>
       </c>
       <c r="C248">
         <v>933.721</v>
@@ -42807,7 +42807,7 @@
         <v>-44</v>
       </c>
       <c r="B258">
-        <v>742.57</v>
+        <v>742.572</v>
       </c>
       <c r="C258">
         <v>929.623</v>
@@ -42836,7 +42836,7 @@
         <v>-43</v>
       </c>
       <c r="B259">
-        <v>752.152</v>
+        <v>752.153</v>
       </c>
       <c r="C259">
         <v>926.468</v>
@@ -42865,7 +42865,7 @@
         <v>-42</v>
       </c>
       <c r="B260">
-        <v>761.157</v>
+        <v>761.158</v>
       </c>
       <c r="C260">
         <v>923.207</v>
@@ -42894,7 +42894,7 @@
         <v>-41</v>
       </c>
       <c r="B261">
-        <v>769.605</v>
+        <v>769.606</v>
       </c>
       <c r="C261">
         <v>919.961</v>
@@ -42981,7 +42981,7 @@
         <v>-38</v>
       </c>
       <c r="B264">
-        <v>792.203</v>
+        <v>792.204</v>
       </c>
       <c r="C264">
         <v>911.333</v>
@@ -43010,7 +43010,7 @@
         <v>-37</v>
       </c>
       <c r="B265">
-        <v>799.047</v>
+        <v>799.049</v>
       </c>
       <c r="C265">
         <v>909.091</v>
@@ -43039,7 +43039,7 @@
         <v>-36</v>
       </c>
       <c r="B266">
-        <v>805.651</v>
+        <v>805.653</v>
       </c>
       <c r="C266">
         <v>907.25</v>
@@ -43097,7 +43097,7 @@
         <v>-34</v>
       </c>
       <c r="B268">
-        <v>818.306</v>
+        <v>818.307</v>
       </c>
       <c r="C268">
         <v>904.834</v>
@@ -43126,7 +43126,7 @@
         <v>-33</v>
       </c>
       <c r="B269">
-        <v>824.399</v>
+        <v>824.4</v>
       </c>
       <c r="C269">
         <v>904.238</v>
@@ -43300,7 +43300,7 @@
         <v>-27</v>
       </c>
       <c r="B275">
-        <v>856.006</v>
+        <v>856.007</v>
       </c>
       <c r="C275">
         <v>905.262</v>
@@ -43329,7 +43329,7 @@
         <v>-26</v>
       </c>
       <c r="B276">
-        <v>859.715</v>
+        <v>859.718</v>
       </c>
       <c r="C276">
         <v>905.147</v>
@@ -43358,7 +43358,7 @@
         <v>-25</v>
       </c>
       <c r="B277">
-        <v>862.655</v>
+        <v>862.656</v>
       </c>
       <c r="C277">
         <v>904.539</v>
@@ -43416,7 +43416,7 @@
         <v>-23</v>
       </c>
       <c r="B279">
-        <v>865.561</v>
+        <v>865.564</v>
       </c>
       <c r="C279">
         <v>901.103</v>
@@ -43474,7 +43474,7 @@
         <v>-21</v>
       </c>
       <c r="B281">
-        <v>863.391</v>
+        <v>863.394</v>
       </c>
       <c r="C281">
         <v>893.442</v>
@@ -43532,7 +43532,7 @@
         <v>-19</v>
       </c>
       <c r="B283">
-        <v>854.897</v>
+        <v>854.899</v>
       </c>
       <c r="C283">
         <v>880.177</v>
@@ -43544,7 +43544,7 @@
         <v>487.159</v>
       </c>
       <c r="F283">
-        <v>6.868</v>
+        <v>6.869</v>
       </c>
       <c r="G283">
         <v>6.88</v>
@@ -43619,7 +43619,7 @@
         <v>-16</v>
       </c>
       <c r="B286">
-        <v>828.525</v>
+        <v>828.528</v>
       </c>
       <c r="C286">
         <v>847.795</v>
@@ -43648,7 +43648,7 @@
         <v>-15</v>
       </c>
       <c r="B287">
-        <v>816.011</v>
+        <v>816.012</v>
       </c>
       <c r="C287">
         <v>833.547</v>
@@ -43735,7 +43735,7 @@
         <v>-12</v>
       </c>
       <c r="B290">
-        <v>768.43</v>
+        <v>768.431</v>
       </c>
       <c r="C290">
         <v>781.495</v>
@@ -43764,7 +43764,7 @@
         <v>-11</v>
       </c>
       <c r="B291">
-        <v>749.766</v>
+        <v>749.767</v>
       </c>
       <c r="C291">
         <v>761.567</v>
@@ -43793,7 +43793,7 @@
         <v>-10</v>
       </c>
       <c r="B292">
-        <v>730.041</v>
+        <v>730.043</v>
       </c>
       <c r="C292">
         <v>740.682</v>
@@ -43822,7 +43822,7 @@
         <v>-9</v>
       </c>
       <c r="B293">
-        <v>709.479</v>
+        <v>709.481</v>
       </c>
       <c r="C293">
         <v>719.058</v>
@@ -43851,7 +43851,7 @@
         <v>-8</v>
       </c>
       <c r="B294">
-        <v>688.305</v>
+        <v>688.308</v>
       </c>
       <c r="C294">
         <v>696.914</v>
@@ -43880,7 +43880,7 @@
         <v>-7</v>
       </c>
       <c r="B295">
-        <v>666.736</v>
+        <v>666.738</v>
       </c>
       <c r="C295">
         <v>674.462</v>
@@ -43909,7 +43909,7 @@
         <v>-6</v>
       </c>
       <c r="B296">
-        <v>644.972</v>
+        <v>644.973</v>
       </c>
       <c r="C296">
         <v>651.898</v>
@@ -44054,7 +44054,7 @@
         <v>-1</v>
       </c>
       <c r="B301">
-        <v>538.81</v>
+        <v>538.811</v>
       </c>
       <c r="C301">
         <v>542.756</v>
@@ -44083,7 +44083,7 @@
         <v>0</v>
       </c>
       <c r="B302">
-        <v>518.905</v>
+        <v>518.907</v>
       </c>
       <c r="C302">
         <v>522.422</v>
@@ -44170,7 +44170,7 @@
         <v>3</v>
       </c>
       <c r="B305">
-        <v>462.978</v>
+        <v>462.979</v>
       </c>
       <c r="C305">
         <v>465.452</v>
@@ -44199,7 +44199,7 @@
         <v>4</v>
       </c>
       <c r="B306">
-        <v>445.673</v>
+        <v>445.674</v>
       </c>
       <c r="C306">
         <v>447.868</v>
@@ -44257,7 +44257,7 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>413.096</v>
+        <v>413.097</v>
       </c>
       <c r="C308">
         <v>414.817</v>
@@ -44286,7 +44286,7 @@
         <v>7</v>
       </c>
       <c r="B309">
-        <v>397.806</v>
+        <v>397.807</v>
       </c>
       <c r="C309">
         <v>399.326</v>
@@ -44344,7 +44344,7 @@
         <v>9</v>
       </c>
       <c r="B311">
-        <v>369.142</v>
+        <v>369.143</v>
       </c>
       <c r="C311">
         <v>370.321</v>
@@ -44402,7 +44402,7 @@
         <v>11</v>
       </c>
       <c r="B313">
-        <v>342.891</v>
+        <v>342.893</v>
       </c>
       <c r="C313">
         <v>343.796</v>
@@ -44460,7 +44460,7 @@
         <v>13</v>
       </c>
       <c r="B315">
-        <v>318.864</v>
+        <v>318.865</v>
       </c>
       <c r="C315">
         <v>319.547</v>
@@ -44518,7 +44518,7 @@
         <v>15</v>
       </c>
       <c r="B317">
-        <v>296.86</v>
+        <v>296.861</v>
       </c>
       <c r="C317">
         <v>297.365</v>
@@ -44576,7 +44576,7 @@
         <v>17</v>
       </c>
       <c r="B319">
-        <v>276.684</v>
+        <v>276.685</v>
       </c>
       <c r="C319">
         <v>277.047</v>
@@ -44663,7 +44663,7 @@
         <v>20</v>
       </c>
       <c r="B322">
-        <v>249.444</v>
+        <v>249.445</v>
       </c>
       <c r="C322">
         <v>249.648</v>
@@ -44750,7 +44750,7 @@
         <v>23</v>
       </c>
       <c r="B325">
-        <v>225.334</v>
+        <v>225.335</v>
       </c>
       <c r="C325">
         <v>225.43</v>
@@ -44837,7 +44837,7 @@
         <v>26</v>
       </c>
       <c r="B328">
-        <v>203.86</v>
+        <v>203.861</v>
       </c>
       <c r="C328">
         <v>203.891</v>
@@ -45417,7 +45417,7 @@
         <v>46</v>
       </c>
       <c r="B348">
-        <v>102.542</v>
+        <v>102.543</v>
       </c>
       <c r="C348">
         <v>103.242</v>
@@ -45591,7 +45591,7 @@
         <v>52</v>
       </c>
       <c r="B354">
-        <v>79.806</v>
+        <v>79.807</v>
       </c>
       <c r="C354">
         <v>81.495</v>
@@ -45707,7 +45707,7 @@
         <v>56</v>
       </c>
       <c r="B358">
-        <v>65.397</v>
+        <v>65.398</v>
       </c>
       <c r="C358">
         <v>68.318</v>
@@ -46374,7 +46374,7 @@
         <v>79</v>
       </c>
       <c r="B381">
-        <v>47.597</v>
+        <v>47.598</v>
       </c>
       <c r="C381">
         <v>52.57</v>
@@ -46780,7 +46780,7 @@
         <v>93</v>
       </c>
       <c r="B395">
-        <v>103.857</v>
+        <v>103.858</v>
       </c>
       <c r="C395">
         <v>127.782</v>
@@ -46896,7 +46896,7 @@
         <v>97</v>
       </c>
       <c r="B399">
-        <v>134.867</v>
+        <v>134.868</v>
       </c>
       <c r="C399">
         <v>159.353</v>
@@ -46954,7 +46954,7 @@
         <v>99</v>
       </c>
       <c r="B401">
-        <v>152.474</v>
+        <v>152.475</v>
       </c>
       <c r="C401">
         <v>177.207</v>
@@ -47099,7 +47099,7 @@
         <v>104</v>
       </c>
       <c r="B406">
-        <v>203.757</v>
+        <v>203.758</v>
       </c>
       <c r="C406">
         <v>228.875</v>
@@ -47215,7 +47215,7 @@
         <v>108</v>
       </c>
       <c r="B410">
-        <v>253.532</v>
+        <v>253.533</v>
       </c>
       <c r="C410">
         <v>278.498</v>
@@ -47273,7 +47273,7 @@
         <v>110</v>
       </c>
       <c r="B412">
-        <v>281.695</v>
+        <v>281.696</v>
       </c>
       <c r="C412">
         <v>306.351</v>
@@ -47302,7 +47302,7 @@
         <v>111</v>
       </c>
       <c r="B413">
-        <v>296.624</v>
+        <v>296.625</v>
       </c>
       <c r="C413">
         <v>321.055</v>
@@ -47476,7 +47476,7 @@
         <v>117</v>
       </c>
       <c r="B419">
-        <v>397.248</v>
+        <v>397.249</v>
       </c>
       <c r="C419">
         <v>419.149</v>
@@ -47505,7 +47505,7 @@
         <v>118</v>
       </c>
       <c r="B420">
-        <v>415.482</v>
+        <v>415.483</v>
       </c>
       <c r="C420">
         <v>436.747</v>
@@ -47592,7 +47592,7 @@
         <v>121</v>
       </c>
       <c r="B423">
-        <v>471.059</v>
+        <v>471.06</v>
       </c>
       <c r="C423">
         <v>490.052</v>
@@ -47679,7 +47679,7 @@
         <v>124</v>
       </c>
       <c r="B426">
-        <v>525.092</v>
+        <v>525.094</v>
       </c>
       <c r="C426">
         <v>541.338</v>
@@ -47708,7 +47708,7 @@
         <v>125</v>
       </c>
       <c r="B427">
-        <v>542.013</v>
+        <v>542.014</v>
       </c>
       <c r="C427">
         <v>557.266</v>
@@ -47853,7 +47853,7 @@
         <v>130</v>
       </c>
       <c r="B432">
-        <v>611.476</v>
+        <v>611.477</v>
       </c>
       <c r="C432">
         <v>621.628</v>
@@ -47882,7 +47882,7 @@
         <v>131</v>
       </c>
       <c r="B433">
-        <v>621.615</v>
+        <v>621.617</v>
       </c>
       <c r="C433">
         <v>630.797</v>
@@ -47911,7 +47911,7 @@
         <v>132</v>
       </c>
       <c r="B434">
-        <v>630.421</v>
+        <v>630.422</v>
       </c>
       <c r="C434">
         <v>638.669</v>
@@ -47940,7 +47940,7 @@
         <v>133</v>
       </c>
       <c r="B435">
-        <v>637.927</v>
+        <v>637.928</v>
       </c>
       <c r="C435">
         <v>645.291</v>
@@ -47969,7 +47969,7 @@
         <v>134</v>
       </c>
       <c r="B436">
-        <v>644.21</v>
+        <v>644.211</v>
       </c>
       <c r="C436">
         <v>650.744</v>
@@ -47998,7 +47998,7 @@
         <v>135</v>
       </c>
       <c r="B437">
-        <v>649.373</v>
+        <v>649.374</v>
       </c>
       <c r="C437">
         <v>655.137</v>
@@ -48056,7 +48056,7 @@
         <v>137</v>
       </c>
       <c r="B439">
-        <v>656.868</v>
+        <v>656.87</v>
       </c>
       <c r="C439">
         <v>661.282</v>
@@ -48085,7 +48085,7 @@
         <v>138</v>
       </c>
       <c r="B440">
-        <v>659.505</v>
+        <v>659.506</v>
       </c>
       <c r="C440">
         <v>663.338</v>
@@ -48172,7 +48172,7 @@
         <v>141</v>
       </c>
       <c r="B443">
-        <v>664.883</v>
+        <v>664.884</v>
       </c>
       <c r="C443">
         <v>667.344</v>
@@ -48346,7 +48346,7 @@
         <v>147</v>
       </c>
       <c r="B449">
-        <v>677.297</v>
+        <v>677.299</v>
       </c>
       <c r="C449">
         <v>678.337</v>
@@ -48375,7 +48375,7 @@
         <v>148</v>
       </c>
       <c r="B450">
-        <v>680.947</v>
+        <v>680.95</v>
       </c>
       <c r="C450">
         <v>681.875</v>
@@ -48404,7 +48404,7 @@
         <v>149</v>
       </c>
       <c r="B451">
-        <v>685.282</v>
+        <v>685.283</v>
       </c>
       <c r="C451">
         <v>686.119</v>
@@ -48462,7 +48462,7 @@
         <v>151</v>
       </c>
       <c r="B453">
-        <v>696.22</v>
+        <v>696.221</v>
       </c>
       <c r="C453">
         <v>696.948</v>
@@ -48491,7 +48491,7 @@
         <v>152</v>
       </c>
       <c r="B454">
-        <v>702.909</v>
+        <v>702.912</v>
       </c>
       <c r="C454">
         <v>703.614</v>
@@ -48578,7 +48578,7 @@
         <v>155</v>
       </c>
       <c r="B457">
-        <v>728.071</v>
+        <v>728.072</v>
       </c>
       <c r="C457">
         <v>728.814</v>
@@ -48607,7 +48607,7 @@
         <v>156</v>
       </c>
       <c r="B458">
-        <v>738.103</v>
+        <v>738.106</v>
       </c>
       <c r="C458">
         <v>738.903</v>
@@ -48636,7 +48636,7 @@
         <v>157</v>
       </c>
       <c r="B459">
-        <v>748.879</v>
+        <v>748.881</v>
       </c>
       <c r="C459">
         <v>749.755</v>
@@ -48665,7 +48665,7 @@
         <v>158</v>
       </c>
       <c r="B460">
-        <v>760.3</v>
+        <v>760.301</v>
       </c>
       <c r="C460">
         <v>761.278</v>
@@ -48810,7 +48810,7 @@
         <v>163</v>
       </c>
       <c r="B465">
-        <v>820.757</v>
+        <v>820.758</v>
       </c>
       <c r="C465">
         <v>822.787</v>
@@ -48839,7 +48839,7 @@
         <v>164</v>
       </c>
       <c r="B466">
-        <v>831.542</v>
+        <v>831.545</v>
       </c>
       <c r="C466">
         <v>833.921</v>
@@ -48868,7 +48868,7 @@
         <v>165</v>
       </c>
       <c r="B467">
-        <v>840.998</v>
+        <v>840.999</v>
       </c>
       <c r="C467">
         <v>843.774</v>
@@ -48897,7 +48897,7 @@
         <v>166</v>
       </c>
       <c r="B468">
-        <v>848.657</v>
+        <v>848.658</v>
       </c>
       <c r="C468">
         <v>851.884</v>
@@ -48926,7 +48926,7 @@
         <v>167</v>
       </c>
       <c r="B469">
-        <v>854.055</v>
+        <v>854.057</v>
       </c>
       <c r="C469">
         <v>857.787</v>
@@ -48955,7 +48955,7 @@
         <v>168</v>
       </c>
       <c r="B470">
-        <v>856.762</v>
+        <v>856.763</v>
       </c>
       <c r="C470">
         <v>861.045</v>
@@ -49100,7 +49100,7 @@
         <v>173</v>
       </c>
       <c r="B475">
-        <v>821.172</v>
+        <v>821.174</v>
       </c>
       <c r="C475">
         <v>828.592</v>
@@ -49129,7 +49129,7 @@
         <v>174</v>
       </c>
       <c r="B476">
-        <v>804.388</v>
+        <v>804.389</v>
       </c>
       <c r="C476">
         <v>812.415</v>
@@ -49158,7 +49158,7 @@
         <v>175</v>
       </c>
       <c r="B477">
-        <v>785.076</v>
+        <v>785.078</v>
       </c>
       <c r="C477">
         <v>793.669</v>
@@ -49274,7 +49274,7 @@
         <v>179</v>
       </c>
       <c r="B481">
-        <v>692.697</v>
+        <v>692.699</v>
       </c>
       <c r="C481">
         <v>702.865</v>
@@ -49303,7 +49303,7 @@
         <v>180</v>
       </c>
       <c r="B482">
-        <v>668.28</v>
+        <v>668.281</v>
       </c>
       <c r="C482">
         <v>678.62</v>
@@ -49332,7 +49332,7 @@
         <v>181</v>
       </c>
       <c r="B483">
-        <v>644.158</v>
+        <v>644.159</v>
       </c>
       <c r="C483">
         <v>654.567</v>
@@ -49448,7 +49448,7 @@
         <v>185</v>
       </c>
       <c r="B487">
-        <v>555.785</v>
+        <v>555.786</v>
       </c>
       <c r="C487">
         <v>565.389</v>
@@ -49477,7 +49477,7 @@
         <v>186</v>
       </c>
       <c r="B488">
-        <v>536.526</v>
+        <v>536.527</v>
       </c>
       <c r="C488">
         <v>545.662</v>
@@ -49535,7 +49535,7 @@
         <v>188</v>
       </c>
       <c r="B490">
-        <v>501.952</v>
+        <v>501.953</v>
       </c>
       <c r="C490">
         <v>509.865</v>
@@ -49564,7 +49564,7 @@
         <v>189</v>
       </c>
       <c r="B491">
-        <v>486.674</v>
+        <v>486.676</v>
       </c>
       <c r="C491">
         <v>493.852</v>
@@ -49651,7 +49651,7 @@
         <v>192</v>
       </c>
       <c r="B494">
-        <v>448.741</v>
+        <v>448.742</v>
       </c>
       <c r="C494">
         <v>453.403</v>
@@ -49680,7 +49680,7 @@
         <v>193</v>
       </c>
       <c r="B495">
-        <v>438.619</v>
+        <v>438.62</v>
       </c>
       <c r="C495">
         <v>442.406</v>
@@ -49738,7 +49738,7 @@
         <v>195</v>
       </c>
       <c r="B497">
-        <v>421.871</v>
+        <v>421.872</v>
       </c>
       <c r="C497">
         <v>424.01</v>
@@ -49767,7 +49767,7 @@
         <v>196</v>
       </c>
       <c r="B498">
-        <v>415.129</v>
+        <v>415.13</v>
       </c>
       <c r="C498">
         <v>416.551</v>
@@ -49796,7 +49796,7 @@
         <v>197</v>
       </c>
       <c r="B499">
-        <v>409.388</v>
+        <v>409.39</v>
       </c>
       <c r="C499">
         <v>410.208</v>
@@ -49912,7 +49912,7 @@
         <v>201</v>
       </c>
       <c r="B503">
-        <v>394.978</v>
+        <v>394.979</v>
       </c>
       <c r="C503">
         <v>395.147</v>
@@ -49941,7 +49941,7 @@
         <v>202</v>
       </c>
       <c r="B504">
-        <v>393.099</v>
+        <v>393.101</v>
       </c>
       <c r="C504">
         <v>393.703</v>
@@ -50028,7 +50028,7 @@
         <v>205</v>
       </c>
       <c r="B507">
-        <v>390.068</v>
+        <v>390.069</v>
       </c>
       <c r="C507">
         <v>393.886</v>
@@ -50057,7 +50057,7 @@
         <v>206</v>
       </c>
       <c r="B508">
-        <v>389.553</v>
+        <v>389.554</v>
       </c>
       <c r="C508">
         <v>395.173</v>
@@ -50115,7 +50115,7 @@
         <v>208</v>
       </c>
       <c r="B510">
-        <v>388.521</v>
+        <v>388.522</v>
       </c>
       <c r="C510">
         <v>399.001</v>
@@ -50202,7 +50202,7 @@
         <v>211</v>
       </c>
       <c r="B513">
-        <v>385.023</v>
+        <v>385.024</v>
       </c>
       <c r="C513">
         <v>406.224</v>
@@ -50231,7 +50231,7 @@
         <v>212</v>
       </c>
       <c r="B514">
-        <v>382.858</v>
+        <v>382.859</v>
       </c>
       <c r="C514">
         <v>408.574</v>
@@ -50260,7 +50260,7 @@
         <v>213</v>
       </c>
       <c r="B515">
-        <v>380.046</v>
+        <v>380.047</v>
       </c>
       <c r="C515">
         <v>410.72</v>
@@ -50289,7 +50289,7 @@
         <v>214</v>
       </c>
       <c r="B516">
-        <v>376.557</v>
+        <v>376.558</v>
       </c>
       <c r="C516">
         <v>412.571</v>
@@ -50347,7 +50347,7 @@
         <v>216</v>
       </c>
       <c r="B518">
-        <v>367.717</v>
+        <v>367.718</v>
       </c>
       <c r="C518">
         <v>415.126</v>
@@ -50405,7 +50405,7 @@
         <v>218</v>
       </c>
       <c r="B520">
-        <v>357.57</v>
+        <v>357.571</v>
       </c>
       <c r="C520">
         <v>415.906</v>
@@ -50463,7 +50463,7 @@
         <v>220</v>
       </c>
       <c r="B522">
-        <v>349.056</v>
+        <v>349.057</v>
       </c>
       <c r="C522">
         <v>414.884</v>
@@ -50492,7 +50492,7 @@
         <v>221</v>
       </c>
       <c r="B523">
-        <v>346.614</v>
+        <v>346.615</v>
       </c>
       <c r="C523">
         <v>413.74</v>
@@ -50579,7 +50579,7 @@
         <v>224</v>
       </c>
       <c r="B526">
-        <v>348.22</v>
+        <v>348.221</v>
       </c>
       <c r="C526">
         <v>407.931</v>
@@ -50608,7 +50608,7 @@
         <v>225</v>
       </c>
       <c r="B527">
-        <v>350.542</v>
+        <v>350.543</v>
       </c>
       <c r="C527">
         <v>405.169</v>
@@ -50637,7 +50637,7 @@
         <v>226</v>
       </c>
       <c r="B528">
-        <v>352.902</v>
+        <v>352.903</v>
       </c>
       <c r="C528">
         <v>401.932</v>
@@ -50666,7 +50666,7 @@
         <v>227</v>
       </c>
       <c r="B529">
-        <v>354.871</v>
+        <v>354.872</v>
       </c>
       <c r="C529">
         <v>398.161</v>
@@ -50753,7 +50753,7 @@
         <v>230</v>
       </c>
       <c r="B532">
-        <v>355.581</v>
+        <v>355.582</v>
       </c>
       <c r="C532">
         <v>382.975</v>
@@ -50782,7 +50782,7 @@
         <v>231</v>
       </c>
       <c r="B533">
-        <v>353.526</v>
+        <v>353.527</v>
       </c>
       <c r="C533">
         <v>376.433</v>
@@ -51043,7 +51043,7 @@
         <v>240</v>
       </c>
       <c r="B542">
-        <v>286.772</v>
+        <v>286.773</v>
       </c>
       <c r="C542">
         <v>288.902</v>
@@ -51072,7 +51072,7 @@
         <v>241</v>
       </c>
       <c r="B543">
-        <v>276.303</v>
+        <v>276.304</v>
       </c>
       <c r="C543">
         <v>277.729</v>
@@ -51217,7 +51217,7 @@
         <v>246</v>
       </c>
       <c r="B548">
-        <v>224.885</v>
+        <v>224.886</v>
       </c>
       <c r="C548">
         <v>224.922</v>
@@ -51304,7 +51304,7 @@
         <v>249</v>
       </c>
       <c r="B551">
-        <v>197.318</v>
+        <v>197.319</v>
       </c>
       <c r="C551">
         <v>197.356</v>
@@ -51449,7 +51449,7 @@
         <v>254</v>
       </c>
       <c r="B556">
-        <v>158.915</v>
+        <v>158.916</v>
       </c>
       <c r="C556">
         <v>159.225</v>
@@ -51652,7 +51652,7 @@
         <v>261</v>
       </c>
       <c r="B563">
-        <v>119.394</v>
+        <v>119.395</v>
       </c>
       <c r="C563">
         <v>119.911</v>
@@ -51855,7 +51855,7 @@
         <v>268</v>
       </c>
       <c r="B570">
-        <v>92.049</v>
+        <v>92.05</v>
       </c>
       <c r="C570">
         <v>92.538</v>
@@ -51884,7 +51884,7 @@
         <v>269</v>
       </c>
       <c r="B571">
-        <v>88.881</v>
+        <v>88.882</v>
       </c>
       <c r="C571">
         <v>89.358</v>
@@ -52029,7 +52029,7 @@
         <v>274</v>
       </c>
       <c r="B576">
-        <v>75.182</v>
+        <v>75.183</v>
       </c>
       <c r="C576">
         <v>75.585</v>
@@ -52174,7 +52174,7 @@
         <v>279</v>
       </c>
       <c r="B581">
-        <v>64.387</v>
+        <v>64.388</v>
       </c>
       <c r="C581">
         <v>64.716</v>
@@ -52912,7 +52912,7 @@
         <v>-298</v>
       </c>
       <c r="B4">
-        <v>-0.000722606006304575</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -53115,7 +53115,7 @@
         <v>-291</v>
       </c>
       <c r="B11">
-        <v>-0.000623196624770056</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -53202,7 +53202,7 @@
         <v>-288</v>
       </c>
       <c r="B14">
-        <v>-0.00058248581647315</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -53376,7 +53376,7 @@
         <v>-282</v>
       </c>
       <c r="B20">
-        <v>-0.000504614701447121</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>-1.43235091143867e-14</v>
@@ -53434,7 +53434,7 @@
         <v>-280</v>
       </c>
       <c r="B22">
-        <v>-0.000479747460938854</v>
+        <v>-1.36351775202951e-14</v>
       </c>
       <c r="C22">
         <v>1.36157771738202e-14</v>
@@ -53579,7 +53579,7 @@
         <v>-275</v>
       </c>
       <c r="B27">
-        <v>-0.000420067462836537</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>-1.19171591027045e-14</v>
@@ -53695,7 +53695,7 @@
         <v>-271</v>
       </c>
       <c r="B31">
-        <v>-0.000375012187887239</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -53753,7 +53753,7 @@
         <v>-269</v>
       </c>
       <c r="B33">
-        <v>-0.000353428075631204</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -53811,7 +53811,7 @@
         <v>-267</v>
       </c>
       <c r="B35">
-        <v>-0.00033250428931637</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -53869,7 +53869,7 @@
         <v>-265</v>
       </c>
       <c r="B37">
-        <v>-0.000312262875389375</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>-0.000311284046685246</v>
@@ -53898,7 +53898,7 @@
         <v>-264</v>
       </c>
       <c r="B38">
-        <v>-0.000302408075515287</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>-0.000301404545190547</v>
@@ -53956,7 +53956,7 @@
         <v>-262</v>
       </c>
       <c r="B40">
-        <v>-0.00056649520745325</v>
+        <v>-0.000283246801444898</v>
       </c>
       <c r="C40">
         <v>1.60408330518384e-14</v>
@@ -54014,7 +54014,7 @@
         <v>-260</v>
       </c>
       <c r="B42">
-        <v>-0.000264848744875535</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -54043,7 +54043,7 @@
         <v>-259</v>
       </c>
       <c r="B43">
-        <v>-0.000255948237022491</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>-0.000254812776306579</v>
@@ -54130,7 +54130,7 @@
         <v>-256</v>
       </c>
       <c r="B46">
-        <v>-0.000461007947779221</v>
+        <v>-0.000230503442563464</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -54246,7 +54246,7 @@
         <v>-252</v>
       </c>
       <c r="B50">
-        <v>-0.000599268891960358</v>
+        <v>-1.13547628329284e-14</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -54275,7 +54275,7 @@
         <v>-251</v>
       </c>
       <c r="B51">
-        <v>-0.000192684910091302</v>
+        <v>-2.19056958940112e-14</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -54420,7 +54420,7 @@
         <v>-246</v>
       </c>
       <c r="B56">
-        <v>-0.000161452556373588</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -54449,7 +54449,7 @@
         <v>-245</v>
       </c>
       <c r="B57">
-        <v>-0.000312186350268825</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -54478,7 +54478,7 @@
         <v>-244</v>
       </c>
       <c r="B58">
-        <v>-0.000453148931917252</v>
+        <v>-0.000151049187653897</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -54507,7 +54507,7 @@
         <v>-243</v>
       </c>
       <c r="B59">
-        <v>-0.000438989913481343</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -54536,7 +54536,7 @@
         <v>-242</v>
       </c>
       <c r="B60">
-        <v>-0.000283882029976907</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>-1.59220579957195e-14</v>
@@ -54565,7 +54565,7 @@
         <v>-241</v>
       </c>
       <c r="B61">
-        <v>-0.000275777243698337</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>1.54522708390747e-14</v>
@@ -54594,7 +54594,7 @@
         <v>-240</v>
       </c>
       <c r="B62">
-        <v>-0.000268354077112402</v>
+        <v>-0.000134176858529293</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -54623,7 +54623,7 @@
         <v>-239</v>
       </c>
       <c r="B63">
-        <v>-0.000130808553829859</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -54710,7 +54710,7 @@
         <v>-236</v>
       </c>
       <c r="B66">
-        <v>-0.000245503601532029</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -54739,7 +54739,7 @@
         <v>-235</v>
       </c>
       <c r="B67">
-        <v>-0.000362198107882245</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -54826,7 +54826,7 @@
         <v>-232</v>
       </c>
       <c r="B70">
-        <v>-0.000466115174731325</v>
+        <v>-0.000116528386325399</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -54884,7 +54884,7 @@
         <v>-230</v>
       </c>
       <c r="B72">
-        <v>-0.000230221657419399</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -54913,7 +54913,7 @@
         <v>-229</v>
       </c>
       <c r="B73">
-        <v>-0.000114759309559376</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -54942,7 +54942,7 @@
         <v>-228</v>
       </c>
       <c r="B74">
-        <v>-0.000229235819466787</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -55000,7 +55000,7 @@
         <v>-226</v>
       </c>
       <c r="B76">
-        <v>-0.000459508142486479</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -55029,7 +55029,7 @@
         <v>-225</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.000115234057653483</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -55087,7 +55087,7 @@
         <v>-223</v>
       </c>
       <c r="B79">
-        <v>-0.00011630584715741</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>-1.24798523893524e-14</v>
@@ -55116,7 +55116,7 @@
         <v>-222</v>
       </c>
       <c r="B80">
-        <v>-0.000350953540775274</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -55145,7 +55145,7 @@
         <v>-221</v>
       </c>
       <c r="B81">
-        <v>-0.000235474463390949</v>
+        <v>-1.338514203452e-14</v>
       </c>
       <c r="C81">
         <v>0.000109976520010377</v>
@@ -55174,7 +55174,7 @@
         <v>-220</v>
       </c>
       <c r="B82">
-        <v>-0.000237103917899533</v>
+        <v>0.000118551537327735</v>
       </c>
       <c r="C82">
         <v>-1.25153253669568e-14</v>
@@ -55203,7 +55203,7 @@
         <v>-219</v>
       </c>
       <c r="B83">
-        <v>-0.000358254298446019</v>
+        <v>1.35762174597731e-14</v>
       </c>
       <c r="C83">
         <v>-1.25260121376033e-14</v>
@@ -55232,7 +55232,7 @@
         <v>-218</v>
       </c>
       <c r="B84">
-        <v>-0.000240655642239685</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -55319,7 +55319,7 @@
         <v>-215</v>
       </c>
       <c r="B87">
-        <v>-0.000246564128858446</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>1.25268954738862e-14</v>
@@ -55406,7 +55406,7 @@
         <v>-212</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.000126616096194851</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -55464,7 +55464,7 @@
         <v>-210</v>
       </c>
       <c r="B92">
-        <v>-0.000258325508217038</v>
+        <v>1.46840671336684e-14</v>
       </c>
       <c r="C92">
         <v>-1.24032649043645e-14</v>
@@ -55609,7 +55609,7 @@
         <v>-205</v>
       </c>
       <c r="B97">
-        <v>-1.56293984557983e-14</v>
+        <v>0.000137477453694343</v>
       </c>
       <c r="C97">
         <v>0.000107456976922544</v>
@@ -55667,7 +55667,7 @@
         <v>-203</v>
       </c>
       <c r="B99">
-        <v>-1.60911908182711e-14</v>
+        <v>0.000141539410937933</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -55928,7 +55928,7 @@
         <v>-194</v>
       </c>
       <c r="B108">
-        <v>-0.000266259112711837</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>1.23235894221243e-14</v>
@@ -55957,7 +55957,7 @@
         <v>-193</v>
       </c>
       <c r="B109">
-        <v>-0.000131745883267397</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -55986,7 +55986,7 @@
         <v>-192</v>
       </c>
       <c r="B110">
-        <v>-0.00013051746258082</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -56044,7 +56044,7 @@
         <v>-190</v>
       </c>
       <c r="B112">
-        <v>-0.000256896713385822</v>
+        <v>-0.00012844819170332</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -56073,7 +56073,7 @@
         <v>-189</v>
       </c>
       <c r="B113">
-        <v>-0.000255135559880829</v>
+        <v>1.45027404961119e-14</v>
       </c>
       <c r="C113">
         <v>-1.25950513245851e-14</v>
@@ -56102,7 +56102,7 @@
         <v>-188</v>
       </c>
       <c r="B114">
-        <v>-0.000253530089593273</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -56131,7 +56131,7 @@
         <v>-187</v>
       </c>
       <c r="B115">
-        <v>-0.00012602410336703</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -56160,7 +56160,7 @@
         <v>-186</v>
       </c>
       <c r="B116">
-        <v>-0.000125331973060689</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -56189,7 +56189,7 @@
         <v>-185</v>
       </c>
       <c r="B117">
-        <v>-0.000249356038025886</v>
+        <v>-0.000124677863567053</v>
       </c>
       <c r="C117">
         <v>1.27698992804015e-14</v>
@@ -56218,7 +56218,7 @@
         <v>-184</v>
       </c>
       <c r="B118">
-        <v>-0.00012405424147361</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>-1.28007554920829e-14</v>
@@ -56276,7 +56276,7 @@
         <v>-182</v>
       </c>
       <c r="B120">
-        <v>-0.000122882730549673</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -56305,7 +56305,7 @@
         <v>-181</v>
       </c>
       <c r="B121">
-        <v>-0.000367004800428019</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>-0.00011314290627653</v>
@@ -56334,7 +56334,7 @@
         <v>-180</v>
       </c>
       <c r="B122">
-        <v>-0.00036545077133612</v>
+        <v>1.38489302346814e-14</v>
       </c>
       <c r="C122">
         <v>-1.28756789928418e-14</v>
@@ -56363,7 +56363,7 @@
         <v>-179</v>
       </c>
       <c r="B123">
-        <v>-0.000242672209294189</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -56392,7 +56392,7 @@
         <v>-178</v>
       </c>
       <c r="B124">
-        <v>-0.000241805221052615</v>
+        <v>1.37450022272161e-14</v>
       </c>
       <c r="C124">
         <v>1.28967266339295e-14</v>
@@ -56421,7 +56421,7 @@
         <v>-177</v>
       </c>
       <c r="B125">
-        <v>-0.000241057955147878</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>-1.29083534461591e-14</v>
@@ -56450,7 +56450,7 @@
         <v>-176</v>
       </c>
       <c r="B126">
-        <v>-0.000360690939568968</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -56462,7 +56462,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>0.0198925800676414</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -56479,7 +56479,7 @@
         <v>-175</v>
       </c>
       <c r="B127">
-        <v>-0.000360070573837602</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>1.29440821186594e-14</v>
@@ -56508,7 +56508,7 @@
         <v>-174</v>
       </c>
       <c r="B128">
-        <v>-0.000239855319279378</v>
+        <v>-0.000119927515820243</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -56595,7 +56595,7 @@
         <v>-171</v>
       </c>
       <c r="B131">
-        <v>-0.000241036747265305</v>
+        <v>-1.37013197599781e-14</v>
       </c>
       <c r="C131">
         <v>1.31355612516873e-14</v>
@@ -56624,7 +56624,7 @@
         <v>-170</v>
       </c>
       <c r="B132">
-        <v>-0.00024216387955649</v>
+        <v>1.37653895041121e-14</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -56682,7 +56682,7 @@
         <v>-168</v>
       </c>
       <c r="B134">
-        <v>-0.000122891036202022</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -56711,7 +56711,7 @@
         <v>-167</v>
       </c>
       <c r="B135">
-        <v>-0.000372531513052767</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>-1.36318258715266e-14</v>
@@ -56769,7 +56769,7 @@
         <v>-165</v>
       </c>
       <c r="B137">
-        <v>-0.000255191878782121</v>
+        <v>-1.45059418370216e-14</v>
       </c>
       <c r="C137">
         <v>-1.40440639012943e-14</v>
@@ -56798,7 +56798,7 @@
         <v>-164</v>
       </c>
       <c r="B138">
-        <v>-0.000259508387319693</v>
+        <v>-0.000129754025305933</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -56856,7 +56856,7 @@
         <v>-162</v>
       </c>
       <c r="B140">
-        <v>-0.000405018448596104</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -56914,7 +56914,7 @@
         <v>-160</v>
       </c>
       <c r="B142">
-        <v>-0.00014151076898226</v>
+        <v>-1.60878890616032e-14</v>
       </c>
       <c r="C142">
         <v>-1.56459609234547e-14</v>
@@ -56943,7 +56943,7 @@
         <v>-159</v>
       </c>
       <c r="B143">
-        <v>-0.000145221979052652</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>-0.000141318986626469</v>
@@ -57001,7 +57001,7 @@
         <v>-157</v>
       </c>
       <c r="B145">
-        <v>-0.000460530254524182</v>
+        <v>1.74519957326874e-14</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -57059,7 +57059,7 @@
         <v>-155</v>
       </c>
       <c r="B147">
-        <v>-0.000162847618593999</v>
+        <v>0</v>
       </c>
       <c r="C147">
         <v>-1.80464464419806e-14</v>
@@ -57146,7 +57146,7 @@
         <v>-152</v>
       </c>
       <c r="B150">
-        <v>-0.000535423627181449</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -57233,7 +57233,7 @@
         <v>-149</v>
       </c>
       <c r="B153">
-        <v>-0.000390934235079058</v>
+        <v>0</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -57262,7 +57262,7 @@
         <v>-148</v>
       </c>
       <c r="B154">
-        <v>-0.000201310531555698</v>
+        <v>0</v>
       </c>
       <c r="C154">
         <v>1.11625779332029e-14</v>
@@ -57320,7 +57320,7 @@
         <v>-146</v>
       </c>
       <c r="B156">
-        <v>-0.000213097846014047</v>
+        <v>0</v>
       </c>
       <c r="C156">
         <v>-1.18142462554392e-14</v>
@@ -57349,7 +57349,7 @@
         <v>-145</v>
       </c>
       <c r="B157">
-        <v>-0.000437967393329658</v>
+        <v>0</v>
       </c>
       <c r="C157">
         <v>1.21390004635794e-14</v>
@@ -57494,7 +57494,7 @@
         <v>-140</v>
       </c>
       <c r="B162">
-        <v>-0.000247141805019043</v>
+        <v>1.4048350421699e-14</v>
       </c>
       <c r="C162">
         <v>-1.36870512633535e-14</v>
@@ -57523,7 +57523,7 @@
         <v>-139</v>
       </c>
       <c r="B163">
-        <v>-0.000504627433568208</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>-0.000245769085178529</v>
@@ -57552,7 +57552,7 @@
         <v>-138</v>
       </c>
       <c r="B164">
-        <v>-0.000257263844647717</v>
+        <v>0</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -57581,7 +57581,7 @@
         <v>-137</v>
       </c>
       <c r="B165">
-        <v>-0.000261965949674559</v>
+        <v>0</v>
       </c>
       <c r="C165">
         <v>1.44982462005116e-14</v>
@@ -57639,7 +57639,7 @@
         <v>-135</v>
       </c>
       <c r="B167">
-        <v>-0.000270519586979675</v>
+        <v>0</v>
       </c>
       <c r="C167">
         <v>-0.000263270130944338</v>
@@ -57668,7 +57668,7 @@
         <v>-134</v>
       </c>
       <c r="B168">
-        <v>-0.000274321329025488</v>
+        <v>0</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -57697,7 +57697,7 @@
         <v>-133</v>
       </c>
       <c r="B169">
-        <v>-0.000555552469155602</v>
+        <v>-0.000277775462991474</v>
       </c>
       <c r="C169">
         <v>-1.53606782884867e-14</v>
@@ -57726,7 +57726,7 @@
         <v>-132</v>
       </c>
       <c r="B170">
-        <v>-0.000561726748010141</v>
+        <v>1.59651447311192e-14</v>
       </c>
       <c r="C170">
         <v>1.55287824846765e-14</v>
@@ -57755,7 +57755,7 @@
         <v>-131</v>
       </c>
       <c r="B171">
-        <v>-0.000283562451787678</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -57784,7 +57784,7 @@
         <v>-130</v>
       </c>
       <c r="B172">
-        <v>-0.000285859665782368</v>
+        <v>-1.62491942670459e-14</v>
       </c>
       <c r="C172">
         <v>-0.000277972358437906</v>
@@ -57929,7 +57929,7 @@
         <v>-125</v>
       </c>
       <c r="B177">
-        <v>-0.000290896397241241</v>
+        <v>1.6535497652708e-14</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -57958,7 +57958,7 @@
         <v>-124</v>
       </c>
       <c r="B178">
-        <v>-0.000581143632557279</v>
+        <v>0</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -57987,7 +57987,7 @@
         <v>-123</v>
       </c>
       <c r="B179">
-        <v>-0.000289800472367917</v>
+        <v>0</v>
       </c>
       <c r="C179">
         <v>1.60180061714669e-14</v>
@@ -58161,7 +58161,7 @@
         <v>-117</v>
       </c>
       <c r="B185">
-        <v>-0.000276305682511839</v>
+        <v>-1.57061162472288e-14</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -58219,7 +58219,7 @@
         <v>-115</v>
       </c>
       <c r="B187">
-        <v>-0.000268781077805766</v>
+        <v>0</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -58393,7 +58393,7 @@
         <v>-109</v>
       </c>
       <c r="B193">
-        <v>-0.000239571454589997</v>
+        <v>0</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -58422,7 +58422,7 @@
         <v>-108</v>
       </c>
       <c r="B194">
-        <v>-0.000468028942898762</v>
+        <v>1.3302120362629e-14</v>
       </c>
       <c r="C194">
         <v>-0.000228272977965539</v>
@@ -58509,7 +58509,7 @@
         <v>-105</v>
       </c>
       <c r="B197">
-        <v>-0.000216726989006817</v>
+        <v>0</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -58538,7 +58538,7 @@
         <v>-104</v>
       </c>
       <c r="B198">
-        <v>-0.000421712278365854</v>
+        <v>0</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -58596,7 +58596,7 @@
         <v>-102</v>
       </c>
       <c r="B200">
-        <v>-0.000199121872537381</v>
+        <v>1.13187454671605e-14</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -58625,7 +58625,7 @@
         <v>-101</v>
       </c>
       <c r="B201">
-        <v>-0.000579948848497847</v>
+        <v>0</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -58695,7 +58695,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>0.0205086136177263</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -58712,7 +58712,7 @@
         <v>-98</v>
       </c>
       <c r="B204">
-        <v>-0.000352932249352406</v>
+        <v>0</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -58770,7 +58770,7 @@
         <v>-96</v>
       </c>
       <c r="B206">
-        <v>-0.000331932577846937</v>
+        <v>0</v>
       </c>
       <c r="C206">
         <v>1.84058759461612e-14</v>
@@ -58799,7 +58799,7 @@
         <v>-95</v>
       </c>
       <c r="B207">
-        <v>-0.000161008816857308</v>
+        <v>0</v>
       </c>
       <c r="C207">
         <v>-0.000157016683018858</v>
@@ -58828,7 +58828,7 @@
         <v>-94</v>
       </c>
       <c r="B208">
-        <v>-0.000156276127411357</v>
+        <v>0</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -58857,7 +58857,7 @@
         <v>-93</v>
       </c>
       <c r="B209">
-        <v>-0.000303576280380987</v>
+        <v>0</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -58915,7 +58915,7 @@
         <v>-91</v>
       </c>
       <c r="B211">
-        <v>-0.000430845678264948</v>
+        <v>0</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -58956,7 +58956,7 @@
         <v>0.000574065994629483</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>0.0146049364685312</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -58973,7 +58973,7 @@
         <v>-89</v>
       </c>
       <c r="B213">
-        <v>-0.000273208367819429</v>
+        <v>-0.000136603997302939</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -59002,7 +59002,7 @@
         <v>-88</v>
       </c>
       <c r="B214">
-        <v>-0.000267116134075298</v>
+        <v>-0.000133557888660315</v>
       </c>
       <c r="C214">
         <v>-1.47456422972163e-14</v>
@@ -59060,7 +59060,7 @@
         <v>-86</v>
       </c>
       <c r="B216">
-        <v>-0.000385206033872803</v>
+        <v>0</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -59118,7 +59118,7 @@
         <v>-84</v>
       </c>
       <c r="B218">
-        <v>-0.000124474251875684</v>
+        <v>0</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -59147,7 +59147,7 @@
         <v>-83</v>
       </c>
       <c r="B219">
-        <v>-0.000245901740131827</v>
+        <v>0</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -59205,7 +59205,7 @@
         <v>-81</v>
       </c>
       <c r="B221">
-        <v>-0.000120714193451298</v>
+        <v>0</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -59234,7 +59234,7 @@
         <v>-80</v>
       </c>
       <c r="B222">
-        <v>-0.000359896925525659</v>
+        <v>0</v>
       </c>
       <c r="C222">
         <v>0.000115185079395928</v>
@@ -59321,7 +59321,7 @@
         <v>-77</v>
       </c>
       <c r="B225">
-        <v>-0.000237895858716789</v>
+        <v>0</v>
       </c>
       <c r="C225">
         <v>-1.28913303671468e-14</v>
@@ -59350,7 +59350,7 @@
         <v>-76</v>
       </c>
       <c r="B226">
-        <v>-0.000475780964719545</v>
+        <v>0</v>
       </c>
       <c r="C226">
         <v>0.000113065511285222</v>
@@ -59379,7 +59379,7 @@
         <v>-75</v>
       </c>
       <c r="B227">
-        <v>-0.00011907384364132</v>
+        <v>0.000119073560070391</v>
       </c>
       <c r="C227">
         <v>0.000112832432564573</v>
@@ -59408,7 +59408,7 @@
         <v>-74</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>0.000119314087172823</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -59495,7 +59495,7 @@
         <v>-71</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>0.000120526653261253</v>
       </c>
       <c r="C231">
         <v>0.000112409313783445</v>
@@ -59524,7 +59524,7 @@
         <v>-70</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>0.000121045445299122</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -59553,7 +59553,7 @@
         <v>-69</v>
       </c>
       <c r="B233">
-        <v>-0.000121603315389915</v>
+        <v>0.000121603019643308</v>
       </c>
       <c r="C233">
         <v>0.000112245413369142</v>
@@ -59582,7 +59582,7 @@
         <v>-68</v>
       </c>
       <c r="B234">
-        <v>-0.000366578321282567</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>0.000112125975773653</v>
@@ -59611,7 +59611,7 @@
         <v>-67</v>
       </c>
       <c r="B235">
-        <v>1.39617766202959e-14</v>
+        <v>0.000122808935097939</v>
       </c>
       <c r="C235">
         <v>0.000111969168167205</v>
@@ -59669,7 +59669,7 @@
         <v>-65</v>
       </c>
       <c r="B237">
-        <v>-0.000248244908505168</v>
+        <v>0.00012412199205574</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -59727,7 +59727,7 @@
         <v>-63</v>
       </c>
       <c r="B239">
-        <v>1.42753794302266e-14</v>
+        <v>0.000125567407734957</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -59756,7 +59756,7 @@
         <v>-62</v>
       </c>
       <c r="B240">
-        <v>-0.000252722452614882</v>
+        <v>0.000126360747308837</v>
       </c>
       <c r="C240">
         <v>0.000110504685948595</v>
@@ -59785,7 +59785,7 @@
         <v>-61</v>
       </c>
       <c r="B241">
-        <v>-0.000254437064364485</v>
+        <v>0</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -59814,7 +59814,7 @@
         <v>-60</v>
       </c>
       <c r="B242">
-        <v>-0.000128155837509937</v>
+        <v>0.000128155509017836</v>
       </c>
       <c r="C242">
         <v>0.000109644313843291</v>
@@ -59988,7 +59988,7 @@
         <v>-54</v>
       </c>
       <c r="B248">
-        <v>1.55169556659982e-14</v>
+        <v>0.000136488399180802</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -60278,7 +60278,7 @@
         <v>-44</v>
       </c>
       <c r="B258">
-        <v>-0.000269334877513596</v>
+        <v>0</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -60307,7 +60307,7 @@
         <v>-43</v>
       </c>
       <c r="B259">
-        <v>-0.000132951850154803</v>
+        <v>0</v>
       </c>
       <c r="C259">
         <v>-1.22709945428893e-14</v>
@@ -60336,7 +60336,7 @@
         <v>-42</v>
       </c>
       <c r="B260">
-        <v>-0.000131378940215534</v>
+        <v>0</v>
       </c>
       <c r="C260">
         <v>-0.000108318069521791</v>
@@ -60365,7 +60365,7 @@
         <v>-41</v>
       </c>
       <c r="B261">
-        <v>-0.00012993678576543</v>
+        <v>-1.47720830816828e-14</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -60452,7 +60452,7 @@
         <v>-38</v>
       </c>
       <c r="B264">
-        <v>-0.000126230271783413</v>
+        <v>0</v>
       </c>
       <c r="C264">
         <v>-0.000109729374441214</v>
@@ -60481,7 +60481,7 @@
         <v>-37</v>
       </c>
       <c r="B265">
-        <v>-0.000250298167686345</v>
+        <v>0</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -60510,7 +60510,7 @@
         <v>-36</v>
       </c>
       <c r="B266">
-        <v>-0.000248246449153094</v>
+        <v>0</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -60568,7 +60568,7 @@
         <v>-34</v>
       </c>
       <c r="B268">
-        <v>-0.000122203674417193</v>
+        <v>0</v>
       </c>
       <c r="C268">
         <v>-0.000110517509298948</v>
@@ -60597,7 +60597,7 @@
         <v>-33</v>
       </c>
       <c r="B269">
-        <v>-0.000121300486775985</v>
+        <v>0</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -60771,7 +60771,7 @@
         <v>-27</v>
       </c>
       <c r="B275">
-        <v>-0.000116821611060711</v>
+        <v>0</v>
       </c>
       <c r="C275">
         <v>-0.000110465257581787</v>
@@ -60800,7 +60800,7 @@
         <v>-26</v>
       </c>
       <c r="B276">
-        <v>-0.000348952850658968</v>
+        <v>-1.32237358903287e-14</v>
       </c>
       <c r="C276">
         <v>1.25600413768831e-14</v>
@@ -60829,7 +60829,7 @@
         <v>-25</v>
       </c>
       <c r="B277">
-        <v>-0.000115921196780873</v>
+        <v>-1.31786990088304e-14</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -60887,7 +60887,7 @@
         <v>-23</v>
       </c>
       <c r="B279">
-        <v>-0.000346596022686912</v>
+        <v>0</v>
       </c>
       <c r="C279">
         <v>-1.26164087481249e-14</v>
@@ -60945,7 +60945,7 @@
         <v>-21</v>
       </c>
       <c r="B281">
-        <v>-0.000347467138287179</v>
+        <v>1.31674343024872e-14</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -61003,7 +61003,7 @@
         <v>-19</v>
       </c>
       <c r="B283">
-        <v>-0.000233946311642107</v>
+        <v>1.3298277073855e-14</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -61015,7 +61015,7 @@
         <v>-0.000205271790120514</v>
       </c>
       <c r="F283">
-        <v>1.29321260876547e-14</v>
+        <v>0.0145581598486</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -61090,7 +61090,7 @@
         <v>-16</v>
       </c>
       <c r="B286">
-        <v>-0.000241392836661864</v>
+        <v>0.000120695981317474</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -61119,7 +61119,7 @@
         <v>-15</v>
       </c>
       <c r="B287">
-        <v>-0.000122547367618372</v>
+        <v>0</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -61206,7 +61206,7 @@
         <v>-12</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>0.000130135301684867</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -61235,7 +61235,7 @@
         <v>-11</v>
       </c>
       <c r="B291">
-        <v>-0.00013337494631343</v>
+        <v>1.51629556544388e-14</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -61264,7 +61264,7 @@
         <v>-10</v>
       </c>
       <c r="B292">
-        <v>-0.000273957216095083</v>
+        <v>0</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -61293,7 +61293,7 @@
         <v>-9</v>
       </c>
       <c r="B293">
-        <v>-0.000281896997665384</v>
+        <v>-1.60239439423488e-14</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -61322,7 +61322,7 @@
         <v>-8</v>
       </c>
       <c r="B294">
-        <v>-0.000290568861197637</v>
+        <v>0.000145283797366347</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -61351,7 +61351,7 @@
         <v>-7</v>
       </c>
       <c r="B295">
-        <v>-0.000299968803254421</v>
+        <v>0</v>
       </c>
       <c r="C295">
         <v>-0.000148266321911396</v>
@@ -61380,7 +61380,7 @@
         <v>-6</v>
       </c>
       <c r="B296">
-        <v>-0.000155045490360828</v>
+        <v>-1.76266041712779e-14</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -61525,7 +61525,7 @@
         <v>-1</v>
       </c>
       <c r="B301">
-        <v>-0.000185594179783233</v>
+        <v>0</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -61554,7 +61554,7 @@
         <v>0</v>
       </c>
       <c r="B302">
-        <v>-0.000385427004933987</v>
+        <v>2.1908904239414e-14</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -61641,7 +61641,7 @@
         <v>3</v>
       </c>
       <c r="B305">
-        <v>-0.000215992984555032</v>
+        <v>-1.22777531725646e-14</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -61670,7 +61670,7 @@
         <v>4</v>
       </c>
       <c r="B306">
-        <v>-0.000224379758260697</v>
+        <v>-1.2754483963796e-14</v>
       </c>
       <c r="C306">
         <v>-1.26920027465253e-14</v>
@@ -61728,7 +61728,7 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>-0.000242074481470736</v>
+        <v>0</v>
       </c>
       <c r="C308">
         <v>1.37032520028851e-14</v>
@@ -61757,7 +61757,7 @@
         <v>7</v>
       </c>
       <c r="B309">
-        <v>-0.000251378812782199</v>
+        <v>1.42891952280397e-14</v>
       </c>
       <c r="C309">
         <v>1.42348404213119e-14</v>
@@ -61815,7 +61815,7 @@
         <v>9</v>
       </c>
       <c r="B311">
-        <v>-0.000270898461847527</v>
+        <v>-1.53987530200513e-14</v>
       </c>
       <c r="C311">
         <v>1.53497692166547e-14</v>
@@ -61873,7 +61873,7 @@
         <v>11</v>
       </c>
       <c r="B313">
-        <v>-0.000583275734857301</v>
+        <v>-1.65775967607411e-14</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -61931,7 +61931,7 @@
         <v>13</v>
       </c>
       <c r="B315">
-        <v>-0.000313613327322368</v>
+        <v>0</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -61989,7 +61989,7 @@
         <v>15</v>
       </c>
       <c r="B317">
-        <v>-0.000336859125505744</v>
+        <v>0</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -62047,7 +62047,7 @@
         <v>17</v>
       </c>
       <c r="B319">
-        <v>-0.000361423139746553</v>
+        <v>0</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -62134,7 +62134,7 @@
         <v>20</v>
       </c>
       <c r="B322">
-        <v>-0.00040089158288224</v>
+        <v>0</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -62221,7 +62221,7 @@
         <v>23</v>
       </c>
       <c r="B325">
-        <v>-0.000443785669275287</v>
+        <v>0</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -62308,7 +62308,7 @@
         <v>26</v>
       </c>
       <c r="B328">
-        <v>-0.000490532718520727</v>
+        <v>0</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -62888,7 +62888,7 @@
         <v>46</v>
       </c>
       <c r="B348">
-        <v>-0.000975210157779801</v>
+        <v>1.38584347202656e-14</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -63062,7 +63062,7 @@
         <v>52</v>
       </c>
       <c r="B354">
-        <v>-0.00125303861865621</v>
+        <v>0</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -63178,7 +63178,7 @@
         <v>56</v>
       </c>
       <c r="B358">
-        <v>-0.00152912213097017</v>
+        <v>0</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -63845,7 +63845,7 @@
         <v>79</v>
       </c>
       <c r="B381">
-        <v>0.00210097275037853</v>
+        <v>0.00420185722088184</v>
       </c>
       <c r="C381">
         <v>0.00190222560396571</v>
@@ -64251,7 +64251,7 @@
         <v>93</v>
       </c>
       <c r="B395">
-        <v>0.000962862397325711</v>
+        <v>0.00192570625276371</v>
       </c>
       <c r="C395">
         <v>0.000782582836385848</v>
@@ -64367,7 +64367,7 @@
         <v>97</v>
       </c>
       <c r="B399">
-        <v>0.000741471227191495</v>
+        <v>0.00148293145889398</v>
       </c>
       <c r="C399">
         <v>1.78356914713899e-14</v>
@@ -64425,7 +64425,7 @@
         <v>99</v>
       </c>
       <c r="B401">
-        <v>0</v>
+        <v>0.000655845220531087</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -64570,7 +64570,7 @@
         <v>104</v>
       </c>
       <c r="B406">
-        <v>0</v>
+        <v>0.000490778276192726</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -64686,7 +64686,7 @@
         <v>108</v>
       </c>
       <c r="B410">
-        <v>0</v>
+        <v>0.000394425972152088</v>
       </c>
       <c r="C410">
         <v>0.000359069005873059</v>
@@ -64744,7 +64744,7 @@
         <v>110</v>
       </c>
       <c r="B412">
-        <v>0.000354993876347238</v>
+        <v>0.000709985232310558</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -64773,7 +64773,7 @@
         <v>111</v>
       </c>
       <c r="B413">
-        <v>0</v>
+        <v>0.000337126000834843</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -64947,7 +64947,7 @@
         <v>117</v>
       </c>
       <c r="B419">
-        <v>0.000251731915587541</v>
+        <v>0.000503462563799127</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -64976,7 +64976,7 @@
         <v>118</v>
       </c>
       <c r="B420">
-        <v>1.36813192534955e-14</v>
+        <v>0.000240683734360539</v>
       </c>
       <c r="C420">
         <v>1.30151824421938e-14</v>
@@ -65063,7 +65063,7 @@
         <v>121</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>0.000212287182094925</v>
       </c>
       <c r="C423">
         <v>1.15994667628758e-14</v>
@@ -65150,7 +65150,7 @@
         <v>124</v>
       </c>
       <c r="B426">
-        <v>0</v>
+        <v>0.000380884184558649</v>
       </c>
       <c r="C426">
         <v>-2.10010820821032e-14</v>
@@ -65179,7 +65179,7 @@
         <v>125</v>
       </c>
       <c r="B427">
-        <v>0.000184497419820196</v>
+        <v>0.000368994158834715</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -65324,7 +65324,7 @@
         <v>130</v>
       </c>
       <c r="B432">
-        <v>0.000163538716151796</v>
+        <v>0.000327076897406232</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -65353,7 +65353,7 @@
         <v>131</v>
       </c>
       <c r="B433">
-        <v>-0.000160871278842427</v>
+        <v>0.000160870761252725</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -65382,7 +65382,7 @@
         <v>132</v>
       </c>
       <c r="B434">
-        <v>1.80334788532768e-14</v>
+        <v>0.000158623905905892</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -65411,7 +65411,7 @@
         <v>133</v>
       </c>
       <c r="B435">
-        <v>0</v>
+        <v>0.000156757502410359</v>
       </c>
       <c r="C435">
         <v>1.76179177644839e-14</v>
@@ -65440,7 +65440,7 @@
         <v>134</v>
       </c>
       <c r="B436">
-        <v>0</v>
+        <v>0.000155228644027555</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -65469,7 +65469,7 @@
         <v>135</v>
       </c>
       <c r="B437">
-        <v>0</v>
+        <v>0.000153994462355492</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -65527,7 +65527,7 @@
         <v>137</v>
       </c>
       <c r="B439">
-        <v>-0.000304475176131689</v>
+        <v>0</v>
       </c>
       <c r="C439">
         <v>1.7191884509425e-14</v>
@@ -65556,7 +65556,7 @@
         <v>138</v>
       </c>
       <c r="B440">
-        <v>0</v>
+        <v>0.00015162864325364</v>
       </c>
       <c r="C440">
         <v>-1.71385986814589e-14</v>
@@ -65643,7 +65643,7 @@
         <v>141</v>
       </c>
       <c r="B443">
-        <v>0</v>
+        <v>0.000150402175413509</v>
       </c>
       <c r="C443">
         <v>-0.0001498477546777</v>
@@ -65817,7 +65817,7 @@
         <v>147</v>
       </c>
       <c r="B449">
-        <v>-0.000442937145732088</v>
+        <v>-0.000147645279260172</v>
       </c>
       <c r="C449">
         <v>-0.000294838701110614</v>
@@ -65846,7 +65846,7 @@
         <v>148</v>
       </c>
       <c r="B450">
-        <v>-0.000587417229243847</v>
+        <v>-0.000146853660324011</v>
       </c>
       <c r="C450">
         <v>-0.000146654445476083</v>
@@ -65875,7 +65875,7 @@
         <v>149</v>
       </c>
       <c r="B451">
-        <v>-0.00029185065417634</v>
+        <v>-0.00014592511414647</v>
       </c>
       <c r="C451">
         <v>-0.000291494624120071</v>
@@ -65933,7 +65933,7 @@
         <v>151</v>
       </c>
       <c r="B453">
-        <v>-0.000574531039025798</v>
+        <v>-0.000430897660359147</v>
       </c>
       <c r="C453">
         <v>-0.000286965455108042</v>
@@ -65962,7 +65962,7 @@
         <v>152</v>
       </c>
       <c r="B454">
-        <v>-0.000853595557884706</v>
+        <v>-0.000426795957378599</v>
       </c>
       <c r="C454">
         <v>-0.000426370140436242</v>
@@ -66049,7 +66049,7 @@
         <v>155</v>
       </c>
       <c r="B457">
-        <v>-0.000686746210190414</v>
+        <v>-0.000549396213563919</v>
       </c>
       <c r="C457">
         <v>-0.00054883687745009</v>
@@ -66078,7 +66078,7 @@
         <v>156</v>
       </c>
       <c r="B458">
-        <v>-0.00094837712352637</v>
+        <v>-0.000541927582219776</v>
       </c>
       <c r="C458">
         <v>-0.00054134304501476</v>
@@ -66107,7 +66107,7 @@
         <v>157</v>
       </c>
       <c r="B459">
-        <v>-0.000801197523227625</v>
+        <v>-0.000534130255677351</v>
       </c>
       <c r="C459">
         <v>-0.00053350761247413</v>
@@ -66136,7 +66136,7 @@
         <v>158</v>
       </c>
       <c r="B460">
-        <v>-0.000657635144021498</v>
+        <v>-0.000526107423231774</v>
       </c>
       <c r="C460">
         <v>-0.000656790292113453</v>
@@ -66281,7 +66281,7 @@
         <v>163</v>
       </c>
       <c r="B465">
-        <v>-0.000974709932420704</v>
+        <v>-0.000852870151731468</v>
       </c>
       <c r="C465">
         <v>-0.000972305104471086</v>
@@ -66310,7 +66310,7 @@
         <v>164</v>
       </c>
       <c r="B466">
-        <v>-0.00132284358456545</v>
+        <v>-0.000962064590616046</v>
       </c>
       <c r="C466">
         <v>-0.000959323485069271</v>
@@ -66339,7 +66339,7 @@
         <v>165</v>
       </c>
       <c r="B467">
-        <v>-0.00118906346982881</v>
+        <v>-0.0010701558503654</v>
       </c>
       <c r="C467">
         <v>-0.000948121179358989</v>
@@ -66368,7 +66368,7 @@
         <v>166</v>
       </c>
       <c r="B468">
-        <v>-0.00117833235333912</v>
+        <v>-0.0010604978683876</v>
       </c>
       <c r="C468">
         <v>-0.00105648186842511</v>
@@ -66397,7 +66397,7 @@
         <v>167</v>
       </c>
       <c r="B469">
-        <v>-0.00140506173490669</v>
+        <v>-0.00117088203714634</v>
       </c>
       <c r="C469">
         <v>-0.00104921151754626</v>
@@ -66426,7 +66426,7 @@
         <v>168</v>
       </c>
       <c r="B470">
-        <v>-0.0012839038146044</v>
+        <v>-0.00116718392367445</v>
       </c>
       <c r="C470">
         <v>-0.00104524153790041</v>
@@ -66571,7 +66571,7 @@
         <v>173</v>
       </c>
       <c r="B475">
-        <v>-0.00158310317447745</v>
+        <v>-0.0013395455774254</v>
       </c>
       <c r="C475">
         <v>-0.00108617992934137</v>
@@ -66600,7 +66600,7 @@
         <v>174</v>
       </c>
       <c r="B476">
-        <v>-0.00149181738165458</v>
+        <v>-0.00136749756647185</v>
       </c>
       <c r="C476">
         <v>-0.00110780820147518</v>
@@ -66629,7 +66629,7 @@
         <v>175</v>
       </c>
       <c r="B477">
-        <v>-0.0016558906398769</v>
+        <v>-0.00140113466432218</v>
       </c>
       <c r="C477">
         <v>-0.00113397398663858</v>
@@ -66745,7 +66745,7 @@
         <v>179</v>
       </c>
       <c r="B481">
-        <v>-0.00187672243420047</v>
+        <v>-0.0015879913209173</v>
       </c>
       <c r="C481">
         <v>-0.00113819865835377</v>
@@ -66774,7 +66774,7 @@
         <v>180</v>
       </c>
       <c r="B482">
-        <v>-0.0019452923924154</v>
+        <v>-0.00179565182910442</v>
       </c>
       <c r="C482">
         <v>-0.00103150511331057</v>
@@ -66803,7 +66803,7 @@
         <v>181</v>
       </c>
       <c r="B483">
-        <v>-0.00201813840702436</v>
+        <v>-0.00186289409911895</v>
       </c>
       <c r="C483">
         <v>-0.00106940924306631</v>
@@ -66919,7 +66919,7 @@
         <v>185</v>
       </c>
       <c r="B487">
-        <v>-0.00233903397897274</v>
+        <v>-0.00215910440350374</v>
       </c>
       <c r="C487">
         <v>-0.00123808563660562</v>
@@ -66948,7 +66948,7 @@
         <v>186</v>
       </c>
       <c r="B488">
-        <v>-0.00242299534412753</v>
+        <v>-0.00223660691818746</v>
       </c>
       <c r="C488">
         <v>-0.0012828454244474</v>
@@ -67006,7 +67006,7 @@
         <v>188</v>
       </c>
       <c r="B490">
-        <v>-0.00278911130944991</v>
+        <v>-0.00258988391344083</v>
       </c>
       <c r="C490">
         <v>-0.00137291243759587</v>
@@ -67035,7 +67035,7 @@
         <v>189</v>
       </c>
       <c r="B491">
-        <v>-0.00308214533754489</v>
+        <v>-0.00267118164857804</v>
       </c>
       <c r="C491">
         <v>-0.00141742870334875</v>
@@ -67122,7 +67122,7 @@
         <v>192</v>
       </c>
       <c r="B494">
-        <v>-0.00356553111927876</v>
+        <v>-0.00334267797530196</v>
       </c>
       <c r="C494">
         <v>-0.0017644347302469</v>
@@ -67151,7 +67151,7 @@
         <v>193</v>
       </c>
       <c r="B495">
-        <v>-0.0036478127942389</v>
+        <v>-0.00341981669782189</v>
       </c>
       <c r="C495">
         <v>-0.00203433045664267</v>
@@ -67209,7 +67209,7 @@
         <v>195</v>
       </c>
       <c r="B497">
-        <v>-0.00379262855232114</v>
+        <v>-0.00355558083966926</v>
       </c>
       <c r="C497">
         <v>-0.00235843494256996</v>
@@ -67238,7 +67238,7 @@
         <v>196</v>
       </c>
       <c r="B498">
-        <v>-0.00385422362686363</v>
+        <v>-0.00361332594608589</v>
       </c>
       <c r="C498">
         <v>-0.00288079971001325</v>
@@ -67267,7 +67267,7 @@
         <v>197</v>
       </c>
       <c r="B499">
-        <v>-0.00415253988880864</v>
+        <v>-0.00366398788441006</v>
       </c>
       <c r="C499">
         <v>-0.00292534519073262</v>
@@ -67383,7 +67383,7 @@
         <v>201</v>
       </c>
       <c r="B503">
-        <v>-0.00379767987078855</v>
+        <v>-0.00354449223884481</v>
       </c>
       <c r="C503">
         <v>-0.00404912602146026</v>
@@ -67412,7 +67412,7 @@
         <v>202</v>
       </c>
       <c r="B504">
-        <v>-0.00381583265285417</v>
+        <v>-0.00330703814033382</v>
       </c>
       <c r="C504">
         <v>-0.00431797573298978</v>
@@ -67499,7 +67499,7 @@
         <v>205</v>
       </c>
       <c r="B507">
-        <v>-0.0025636555677594</v>
+        <v>-0.00230728409589446</v>
       </c>
       <c r="C507">
         <v>-0.0048237307241051</v>
@@ -67528,7 +67528,7 @@
         <v>206</v>
       </c>
       <c r="B508">
-        <v>-0.00179693135465649</v>
+        <v>-0.00154022292160487</v>
       </c>
       <c r="C508">
         <v>-0.00506107451674043</v>
@@ -67586,7 +67586,7 @@
         <v>208</v>
       </c>
       <c r="B510">
-        <v>-0.000514772689252202</v>
+        <v>-0.000257385682157818</v>
       </c>
       <c r="C510">
         <v>-0.00501251876561257</v>
@@ -67673,7 +67673,7 @@
         <v>211</v>
       </c>
       <c r="B513">
-        <v>0.00259724743716373</v>
+        <v>0.00285696476062979</v>
       </c>
       <c r="C513">
         <v>-0.00467722241917324</v>
@@ -67702,7 +67702,7 @@
         <v>212</v>
       </c>
       <c r="B514">
-        <v>0.00417909512143394</v>
+        <v>0.00444027696880468</v>
       </c>
       <c r="C514">
         <v>-0.00440556667824489</v>
@@ -67731,7 +67731,7 @@
         <v>213</v>
       </c>
       <c r="B515">
-        <v>0.00526252085273409</v>
+        <v>0.00552563235600202</v>
       </c>
       <c r="C515">
         <v>-0.00413907284766728</v>
@@ -67760,7 +67760,7 @@
         <v>214</v>
       </c>
       <c r="B516">
-        <v>0.00717022920833862</v>
+        <v>0.00743577350634431</v>
       </c>
       <c r="C516">
         <v>-0.00412050289525825</v>
@@ -67818,7 +67818,7 @@
         <v>216</v>
       </c>
       <c r="B518">
-        <v>0.0100620857887935</v>
+        <v>0.0103340059502148</v>
       </c>
       <c r="C518">
         <v>-0.00337247004524169</v>
@@ -67876,7 +67876,7 @@
         <v>218</v>
       </c>
       <c r="B520">
-        <v>0.0120256173616373</v>
+        <v>0.0123052484681475</v>
       </c>
       <c r="C520">
         <v>-0.00336614523474295</v>
@@ -67934,7 +67934,7 @@
         <v>220</v>
       </c>
       <c r="B522">
-        <v>0.0111729922992263</v>
+        <v>0.011459446451445</v>
       </c>
       <c r="C522">
         <v>-0.00361546842008522</v>
@@ -67963,7 +67963,7 @@
         <v>221</v>
       </c>
       <c r="B523">
-        <v>0.00923217181071228</v>
+        <v>0.00952064971222119</v>
       </c>
       <c r="C523">
         <v>-0.0038671629525699</v>
@@ -68050,7 +68050,7 @@
         <v>224</v>
       </c>
       <c r="B526">
-        <v>-0.000287174774561011</v>
+        <v>0</v>
       </c>
       <c r="C526">
         <v>-0.00514792942924539</v>
@@ -68079,7 +68079,7 @@
         <v>225</v>
       </c>
       <c r="B527">
-        <v>-0.00342327025008624</v>
+        <v>-0.00313798877741792</v>
       </c>
       <c r="C527">
         <v>-0.0059234541635855</v>
@@ -68108,7 +68108,7 @@
         <v>226</v>
       </c>
       <c r="B528">
-        <v>-0.00566729573648826</v>
+        <v>-0.00538391569353296</v>
       </c>
       <c r="C528">
         <v>-0.00696635251733208</v>
@@ -68137,7 +68137,7 @@
         <v>227</v>
       </c>
       <c r="B529">
-        <v>-0.00732660600612912</v>
+        <v>-0.00704479361571983</v>
       </c>
       <c r="C529">
         <v>-0.0080369498770696</v>
@@ -68224,7 +68224,7 @@
         <v>230</v>
       </c>
       <c r="B532">
-        <v>-0.0118116547284669</v>
+        <v>-0.0115303924270783</v>
       </c>
       <c r="C532">
         <v>-0.0112278869377913</v>
@@ -68253,7 +68253,7 @@
         <v>231</v>
       </c>
       <c r="B533">
-        <v>-0.0130117728257428</v>
+        <v>-0.0127288721936257</v>
       </c>
       <c r="C533">
         <v>-0.0122199700876515</v>
@@ -68514,7 +68514,7 @@
         <v>240</v>
       </c>
       <c r="B542">
-        <v>-0.0198764175024118</v>
+        <v>-0.0195276403287559</v>
       </c>
       <c r="C542">
         <v>-0.0193837356612219</v>
@@ -68543,7 +68543,7 @@
         <v>241</v>
       </c>
       <c r="B543">
-        <v>-0.0199056832535321</v>
+        <v>-0.0195436910070178</v>
       </c>
       <c r="C543">
         <v>-0.0201635407177644</v>
@@ -68688,7 +68688,7 @@
         <v>246</v>
       </c>
       <c r="B548">
-        <v>-0.0204548991706838</v>
+        <v>-0.0200101384701527</v>
       </c>
       <c r="C548">
         <v>-0.0200069357377295</v>
@@ -68775,7 +68775,7 @@
         <v>249</v>
       </c>
       <c r="B551">
-        <v>-0.0197650493112576</v>
+        <v>-0.019258155575495</v>
       </c>
       <c r="C551">
         <v>-0.0192545450860429</v>
@@ -68920,7 +68920,7 @@
         <v>254</v>
       </c>
       <c r="B556">
-        <v>-0.0188780165497286</v>
+        <v>-0.0182486344987266</v>
       </c>
       <c r="C556">
         <v>-0.0175851782069346</v>
@@ -69123,7 +69123,7 @@
         <v>261</v>
       </c>
       <c r="B563">
-        <v>-0.0167512605323517</v>
+        <v>-0.0159135642196118</v>
       </c>
       <c r="C563">
         <v>-0.0158450851047906</v>
@@ -69326,7 +69326,7 @@
         <v>268</v>
       </c>
       <c r="B570">
-        <v>-0.0152092907038442</v>
+        <v>-0.0141227593698979</v>
       </c>
       <c r="C570">
         <v>-0.0151289200112494</v>
@@ -69355,7 +69355,7 @@
         <v>269</v>
       </c>
       <c r="B571">
-        <v>-0.0146262980839448</v>
+        <v>-0.0135010463310752</v>
       </c>
       <c r="C571">
         <v>-0.0134291277781513</v>
@@ -69500,7 +69500,7 @@
         <v>274</v>
       </c>
       <c r="B576">
-        <v>-0.0146311617142344</v>
+        <v>-0.0133008791881022</v>
       </c>
       <c r="C576">
         <v>-0.0132301382549515</v>
@@ -69645,7 +69645,7 @@
         <v>279</v>
       </c>
       <c r="B581">
-        <v>-0.0139779769208075</v>
+        <v>-0.0124246754053481</v>
       </c>
       <c r="C581">
         <v>-0.0123617034427276</v>

--- a/XC-comparisons/32P-DAT_comparison.xlsx
+++ b/XC-comparisons/32P-DAT_comparison.xlsx
@@ -2181,7 +2181,7 @@
         <v>-240</v>
       </c>
       <c r="B62">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>-232</v>
       </c>
       <c r="B70">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>-224</v>
       </c>
       <c r="B78">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>-223</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C79">
         <v>-1.13686837721616e-13</v>
@@ -2703,7 +2703,7 @@
         <v>-222</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>-208</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C94">
         <v>0.000999999999862666</v>
@@ -4385,7 +4385,7 @@
         <v>-164</v>
       </c>
       <c r="B138">
-        <v>-0.00100000000009004</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>-154</v>
       </c>
       <c r="B148">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>-141</v>
       </c>
       <c r="B161">
-        <v>-0.0010000000000332</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C161">
         <v>-0.0010000000000332</v>
@@ -6792,7 +6792,7 @@
         <v>-81</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -8010,7 +8010,7 @@
         <v>-39</v>
       </c>
       <c r="B263">
-        <v>-0.00100000000009004</v>
+        <v>0</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -8764,7 +8764,7 @@
         <v>-13</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C289">
         <v>-1.13686837721616e-13</v>
@@ -8996,7 +8996,7 @@
         <v>-5</v>
       </c>
       <c r="B297">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -13897,7 +13897,7 @@
         <v>164</v>
       </c>
       <c r="B466">
-        <v>-0.0080000000000382</v>
+        <v>-0.00699999999994816</v>
       </c>
       <c r="C466">
         <v>-0.00799999999992451</v>
@@ -14042,7 +14042,7 @@
         <v>169</v>
       </c>
       <c r="B471">
-        <v>-0.0109999999999673</v>
+        <v>-0.00999999999999091</v>
       </c>
       <c r="C471">
         <v>-0.00900000000001455</v>
@@ -14071,7 +14071,7 @@
         <v>170</v>
       </c>
       <c r="B472">
-        <v>-0.0110000000000809</v>
+        <v>-0.0100000000001046</v>
       </c>
       <c r="C472">
         <v>-0.00900000000012824</v>
@@ -37123,7 +37123,7 @@
         <v>-240</v>
       </c>
       <c r="B62">
-        <v>745.285</v>
+        <v>745.286</v>
       </c>
       <c r="C62">
         <v>756.888</v>
@@ -37355,7 +37355,7 @@
         <v>-232</v>
       </c>
       <c r="B70">
-        <v>858.16</v>
+        <v>858.161</v>
       </c>
       <c r="C70">
         <v>882.617</v>
@@ -37587,7 +37587,7 @@
         <v>-224</v>
       </c>
       <c r="B78">
-        <v>864.179</v>
+        <v>864.18</v>
       </c>
       <c r="C78">
         <v>911.437</v>
@@ -37616,7 +37616,7 @@
         <v>-223</v>
       </c>
       <c r="B79">
-        <v>859.803</v>
+        <v>859.804</v>
       </c>
       <c r="C79">
         <v>910.963</v>
@@ -37645,7 +37645,7 @@
         <v>-222</v>
       </c>
       <c r="B80">
-        <v>854.817</v>
+        <v>854.818</v>
       </c>
       <c r="C80">
         <v>910.193</v>
@@ -38051,7 +38051,7 @@
         <v>-208</v>
       </c>
       <c r="B94">
-        <v>757</v>
+        <v>757.001</v>
       </c>
       <c r="C94">
         <v>922.252</v>
@@ -39327,7 +39327,7 @@
         <v>-164</v>
       </c>
       <c r="B138">
-        <v>770.689</v>
+        <v>770.69</v>
       </c>
       <c r="C138">
         <v>795.145</v>
@@ -39617,7 +39617,7 @@
         <v>-154</v>
       </c>
       <c r="B148">
-        <v>595.725</v>
+        <v>595.726</v>
       </c>
       <c r="C148">
         <v>610.99</v>
@@ -39994,7 +39994,7 @@
         <v>-141</v>
       </c>
       <c r="B161">
-        <v>413.603</v>
+        <v>413.604</v>
       </c>
       <c r="C161">
         <v>424.429</v>
@@ -41734,7 +41734,7 @@
         <v>-81</v>
       </c>
       <c r="B221">
-        <v>828.404</v>
+        <v>828.405</v>
       </c>
       <c r="C221">
         <v>861.086</v>
@@ -42952,7 +42952,7 @@
         <v>-39</v>
       </c>
       <c r="B263">
-        <v>785.06</v>
+        <v>785.061</v>
       </c>
       <c r="C263">
         <v>913.936</v>
@@ -43706,7 +43706,7 @@
         <v>-13</v>
       </c>
       <c r="B289">
-        <v>785.817</v>
+        <v>785.818</v>
       </c>
       <c r="C289">
         <v>800.256</v>
@@ -43938,7 +43938,7 @@
         <v>-5</v>
       </c>
       <c r="B297">
-        <v>623.196</v>
+        <v>623.197</v>
       </c>
       <c r="C297">
         <v>629.396</v>
@@ -48839,7 +48839,7 @@
         <v>164</v>
       </c>
       <c r="B466">
-        <v>831.545</v>
+        <v>831.546</v>
       </c>
       <c r="C466">
         <v>833.921</v>
@@ -48984,7 +48984,7 @@
         <v>169</v>
       </c>
       <c r="B471">
-        <v>856.407</v>
+        <v>856.408</v>
       </c>
       <c r="C471">
         <v>861.281</v>
@@ -49013,7 +49013,7 @@
         <v>170</v>
       </c>
       <c r="B472">
-        <v>852.725</v>
+        <v>852.726</v>
       </c>
       <c r="C472">
         <v>858.222</v>
@@ -54594,7 +54594,7 @@
         <v>-240</v>
       </c>
       <c r="B62">
-        <v>-0.000134176858529293</v>
+        <v>-1.52541222727404e-14</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -54826,7 +54826,7 @@
         <v>-232</v>
       </c>
       <c r="B70">
-        <v>-0.000116528386325399</v>
+        <v>-1.32477283075805e-14</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -55058,7 +55058,7 @@
         <v>-224</v>
       </c>
       <c r="B78">
-        <v>-0.000115716767009653</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -55087,7 +55087,7 @@
         <v>-223</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.000116305576617038</v>
       </c>
       <c r="C79">
         <v>-1.24798523893524e-14</v>
@@ -55116,7 +55116,7 @@
         <v>-222</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.000116983966174829</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -55522,7 +55522,7 @@
         <v>-208</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.000132100221793149</v>
       </c>
       <c r="C94">
         <v>0.000108430233804065</v>
@@ -56798,7 +56798,7 @@
         <v>-164</v>
       </c>
       <c r="B138">
-        <v>-0.000129754025305933</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -57088,7 +57088,7 @@
         <v>-154</v>
       </c>
       <c r="B148">
-        <v>-0.000167862688316984</v>
+        <v>0</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -57465,7 +57465,7 @@
         <v>-141</v>
       </c>
       <c r="B161">
-        <v>-0.000241777743399636</v>
+        <v>-1.37434403102504e-14</v>
       </c>
       <c r="C161">
         <v>-0.000235610667516404</v>
@@ -59205,7 +59205,7 @@
         <v>-81</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>0.000120713902013671</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -60423,7 +60423,7 @@
         <v>-39</v>
       </c>
       <c r="B263">
-        <v>-0.000127378799084152</v>
+        <v>0</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -61177,7 +61177,7 @@
         <v>-13</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>0.000127255929487025</v>
       </c>
       <c r="C289">
         <v>-1.42063086964191e-14</v>
@@ -61409,7 +61409,7 @@
         <v>-5</v>
       </c>
       <c r="B297">
-        <v>-0.000160463160863734</v>
+        <v>0</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -66310,7 +66310,7 @@
         <v>164</v>
       </c>
       <c r="B466">
-        <v>-0.000962064590616046</v>
+        <v>-0.000841805504439701</v>
       </c>
       <c r="C466">
         <v>-0.000959323485069271</v>
@@ -66455,7 +66455,7 @@
         <v>169</v>
       </c>
       <c r="B471">
-        <v>-0.0012844360216541</v>
+        <v>-0.00116766774714749</v>
       </c>
       <c r="C471">
         <v>-0.00104495513078943</v>
@@ -66484,7 +66484,7 @@
         <v>170</v>
       </c>
       <c r="B472">
-        <v>-0.00128998211616652</v>
+        <v>-0.00117270963945096</v>
       </c>
       <c r="C472">
         <v>-0.00104867971225723</v>
